--- a/n of 1/Others n of 1/VO2max_Others/SM_VO2max/SM_VO2max_Test.xlsx
+++ b/n of 1/Others n of 1/VO2max_Others/SM_VO2max/SM_VO2max_Test.xlsx
@@ -369,7 +369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -569,11 +568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118909568"/>
-        <c:axId val="118923648"/>
+        <c:axId val="126098048"/>
+        <c:axId val="126103936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118909568"/>
+        <c:axId val="126098048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -618,12 +617,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118923648"/>
+        <c:crossAx val="126103936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118923648"/>
+        <c:axId val="126103936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -667,7 +666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118909568"/>
+        <c:crossAx val="126098048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1023,11 +1022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73230208"/>
-        <c:axId val="73228672"/>
+        <c:axId val="126006784"/>
+        <c:axId val="126008320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73230208"/>
+        <c:axId val="126006784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -1039,12 +1038,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73228672"/>
+        <c:crossAx val="126008320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73228672"/>
+        <c:axId val="126008320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73230208"/>
+        <c:crossAx val="126006784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1360,45 +1359,56 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47887104"/>
-        <c:axId val="47872640"/>
+        <c:axId val="126048128"/>
+        <c:axId val="126049664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47887104"/>
+        <c:axId val="126048128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47872640"/>
+        <c:crossAx val="126049664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47872640"/>
+        <c:axId val="126049664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47887104"/>
+        <c:crossAx val="126048128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16474040890026623"/>
+          <c:y val="0.19410740757754782"/>
+          <c:w val="0.21987497571511833"/>
+          <c:h val="0.18111210369429559"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1487,16 +1497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1929,25 +1939,25 @@
         <v>1146.96</v>
       </c>
       <c r="E3" s="2">
-        <f>B3/$B$29</f>
+        <f t="shared" ref="E3:E27" si="4">B3/$B$29</f>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="F3">
         <v>86</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G27" si="4">E3</f>
+        <f t="shared" ref="G3:G27" si="5">E3</f>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H27" si="5">I3*100</f>
+        <f t="shared" ref="H3:H27" si="6">I3*100</f>
         <v>72</v>
       </c>
       <c r="I3">
         <v>0.72</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J27" si="6">1-((I3-0.7)/0.3)</f>
+        <f t="shared" ref="J3:J27" si="7">1-((I3-0.7)/0.3)</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="K3">
@@ -1978,25 +1988,25 @@
         <v>1894.4639999999999</v>
       </c>
       <c r="E4" s="2">
-        <f>B4/$B$29</f>
+        <f t="shared" si="4"/>
         <v>9.4285714285714278E-2</v>
       </c>
       <c r="F4">
         <v>80</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.4285714285714278E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="I4">
         <v>0.74</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86666666666666647</v>
       </c>
       <c r="K4">
@@ -2027,25 +2037,25 @@
         <v>1435.68</v>
       </c>
       <c r="E5" s="2">
-        <f>B5/$B$29</f>
+        <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="F5">
         <v>99</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="I5">
         <v>0.78</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.73333333333333306</v>
       </c>
       <c r="K5">
@@ -2076,25 +2086,25 @@
         <v>1209.4559999999999</v>
       </c>
       <c r="E6" s="2">
-        <f>B6/$B$29</f>
+        <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="F6">
         <v>86</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="I6">
         <v>0.89</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.36666666666666647</v>
       </c>
       <c r="K6">
@@ -2125,25 +2135,25 @@
         <v>1843.0560000000003</v>
       </c>
       <c r="E7" s="2">
-        <f>B7/$B$29</f>
+        <f t="shared" si="4"/>
         <v>9.1428571428571428E-2</v>
       </c>
       <c r="F7">
         <v>92</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.1428571428571428E-2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="I7">
         <v>0.88</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3999999999999998</v>
       </c>
       <c r="K7">
@@ -2174,25 +2184,25 @@
         <v>2361.1679999999997</v>
       </c>
       <c r="E8" s="2">
-        <f>B8/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.11714285714285713</v>
       </c>
       <c r="F8">
         <v>91</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11714285714285713</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="I8">
         <v>0.87</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.43333333333333313</v>
       </c>
       <c r="K8">
@@ -2223,25 +2233,25 @@
         <v>2937.0239999999994</v>
       </c>
       <c r="E9" s="2">
-        <f>B9/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.14571428571428571</v>
       </c>
       <c r="F9">
         <v>110</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14571428571428571</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="I9">
         <v>0.86</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46666666666666656</v>
       </c>
       <c r="K9">
@@ -2272,25 +2282,25 @@
         <v>5215.1039999999994</v>
       </c>
       <c r="E10" s="2">
-        <f>B10/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.26</v>
       </c>
       <c r="F10">
         <v>108</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="I10">
         <v>0.63</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2333333333333332</v>
       </c>
       <c r="K10">
@@ -2321,25 +2331,25 @@
         <v>6350.9759999999997</v>
       </c>
       <c r="E11" s="2">
-        <f>B11/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.31714285714285712</v>
       </c>
       <c r="F11">
         <v>109</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31714285714285712</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="I11">
         <v>0.63</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2333333333333332</v>
       </c>
       <c r="K11">
@@ -2370,25 +2380,25 @@
         <v>7671.1679999999997</v>
       </c>
       <c r="E12" s="2">
-        <f>B12/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.38285714285714284</v>
       </c>
       <c r="F12">
         <v>111</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38285714285714284</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="I12">
         <v>0.66</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1333333333333331</v>
       </c>
       <c r="K12">
@@ -2419,25 +2429,25 @@
         <v>6188.8320000000003</v>
       </c>
       <c r="E13" s="2">
-        <f>B13/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.30857142857142861</v>
       </c>
       <c r="F13">
         <v>109</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30857142857142861</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="I13">
         <v>0.69</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="K13">
@@ -2468,25 +2478,25 @@
         <v>5605.0559999999996</v>
       </c>
       <c r="E14" s="2">
-        <f>B14/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="F14">
         <v>109</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="H14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="I14">
         <v>0.69</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="K14">
@@ -2517,25 +2527,25 @@
         <v>6931.5839999999989</v>
       </c>
       <c r="E15" s="2">
-        <f>B15/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.3457142857142857</v>
       </c>
       <c r="F15">
         <v>106</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3457142857142857</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="I15">
         <v>0.68</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0666666666666664</v>
       </c>
       <c r="K15">
@@ -2566,25 +2576,25 @@
         <v>6078.0959999999995</v>
       </c>
       <c r="E16" s="2">
-        <f>B16/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.30285714285714282</v>
       </c>
       <c r="F16">
         <v>112</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30285714285714282</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="I16">
         <v>0.71</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="K16">
@@ -2615,25 +2625,25 @@
         <v>6427.7280000000001</v>
       </c>
       <c r="E17" s="2">
-        <f>B17/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.32</v>
       </c>
       <c r="F17">
         <v>113</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="I17">
         <v>0.74</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86666666666666647</v>
       </c>
       <c r="K17">
@@ -2664,25 +2674,25 @@
         <v>7635.6</v>
       </c>
       <c r="E18" s="2">
-        <f>B18/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.38</v>
       </c>
       <c r="F18">
         <v>125</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="I18">
         <v>0.75</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83333333333333315</v>
       </c>
       <c r="K18">
@@ -2713,25 +2723,25 @@
         <v>7868.1599999999989</v>
       </c>
       <c r="E19" s="2">
-        <f>B19/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.3914285714285714</v>
       </c>
       <c r="F19">
         <v>125</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3914285714285714</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="I19">
         <v>0.76</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="K19">
@@ -2762,25 +2772,25 @@
         <v>7295.4719999999998</v>
       </c>
       <c r="E20" s="2">
-        <f>B20/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.36285714285714282</v>
       </c>
       <c r="F20">
         <v>127</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36285714285714282</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="I20">
         <v>0.77</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.76666666666666639</v>
       </c>
       <c r="K20">
@@ -2811,25 +2821,25 @@
         <v>9648.7199999999993</v>
       </c>
       <c r="E21" s="2">
-        <f>B21/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="F21">
         <v>129</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="I21">
         <v>0.77</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.76666666666666639</v>
       </c>
       <c r="K21">
@@ -2860,25 +2870,25 @@
         <v>9720.7199999999993</v>
       </c>
       <c r="E22" s="2">
-        <f>B22/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.48285714285714282</v>
       </c>
       <c r="F22">
         <v>135</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48285714285714282</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="I22">
         <v>0.81</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.63333333333333297</v>
       </c>
       <c r="K22">
@@ -2909,25 +2919,25 @@
         <v>12085.055999999999</v>
       </c>
       <c r="E23" s="2">
-        <f>B23/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="F23">
         <v>138</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="I23">
         <v>0.83</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="K23">
@@ -2958,25 +2968,25 @@
         <v>12155.472000000002</v>
       </c>
       <c r="E24" s="2">
-        <f>B24/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.60285714285714287</v>
       </c>
       <c r="F24">
         <v>147</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60285714285714287</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="I24">
         <v>0.87</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.43333333333333313</v>
       </c>
       <c r="K24">
@@ -3007,25 +3017,25 @@
         <v>15546.528</v>
       </c>
       <c r="E25" s="2">
-        <f>B25/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="F25">
         <v>155</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="I25">
         <v>0.89</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.36666666666666647</v>
       </c>
       <c r="K25">
@@ -3056,25 +3066,25 @@
         <v>14640.047999999999</v>
       </c>
       <c r="E26" s="2">
-        <f>B26/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.72571428571428565</v>
       </c>
       <c r="F26">
         <v>155</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72571428571428565</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="I26">
         <v>0.87</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.43333333333333313</v>
       </c>
       <c r="K26">
@@ -3105,25 +3115,25 @@
         <v>17052.624</v>
       </c>
       <c r="E27" s="2">
-        <f>B27/$B$29</f>
+        <f t="shared" si="4"/>
         <v>0.84571428571428575</v>
       </c>
       <c r="F27">
         <v>163</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84571428571428575</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="I27">
         <v>0.92</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.26666666666666639</v>
       </c>
       <c r="K27">
@@ -3864,7 +3874,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/n of 1/Others n of 1/VO2max_Others/SM_VO2max/SM_VO2max_Test.xlsx
+++ b/n of 1/Others n of 1/VO2max_Others/SM_VO2max/SM_VO2max_Test.xlsx
@@ -81,12 +81,6 @@
     <t>kCals</t>
   </si>
   <si>
-    <t>Fat (kcal/g)</t>
-  </si>
-  <si>
-    <t>Carbs (kcal/g)</t>
-  </si>
-  <si>
     <t>EE (kCal/min)</t>
   </si>
   <si>
@@ -104,6 +98,12 @@
   </si>
   <si>
     <t>Interpolated (HR_vs_RER)</t>
+  </si>
+  <si>
+    <t>Fat [kcal/min]</t>
+  </si>
+  <si>
+    <t>Carbs [kcal/min]</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -251,8 +251,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,6 +458,11 @@
                 </c:rich>
               </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -568,11 +571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126098048"/>
-        <c:axId val="126103936"/>
+        <c:axId val="126171776"/>
+        <c:axId val="126177664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126098048"/>
+        <c:axId val="126171776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -617,12 +620,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126103936"/>
+        <c:crossAx val="126177664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126103936"/>
+        <c:axId val="126177664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -666,7 +669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126098048"/>
+        <c:crossAx val="126171776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1022,11 +1025,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126006784"/>
-        <c:axId val="126008320"/>
+        <c:axId val="126137856"/>
+        <c:axId val="126139392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126006784"/>
+        <c:axId val="126137856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -1038,12 +1041,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126008320"/>
+        <c:crossAx val="126139392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126008320"/>
+        <c:axId val="126139392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126006784"/>
+        <c:crossAx val="126137856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1110,11 +1113,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal_Distr!$F$13</c:f>
+              <c:f>Cal_Distr!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fat (kcal/g)</c:v>
+                  <c:v>Fat [kcal/min]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1132,7 +1135,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Cal_Distr!$A$14:$A$26</c:f>
+              <c:f>Cal_Distr!$A$5:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1180,7 +1183,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal_Distr!$F$14:$F$26</c:f>
+              <c:f>Cal_Distr!$F$5:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1233,11 +1236,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cal_Distr!$G$13</c:f>
+              <c:f>Cal_Distr!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carbs (kcal/g)</c:v>
+                  <c:v>Carbs [kcal/min]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1255,7 +1258,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Cal_Distr!$A$14:$A$26</c:f>
+              <c:f>Cal_Distr!$A$5:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1303,7 +1306,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Cal_Distr!$G$14:$G$26</c:f>
+              <c:f>Cal_Distr!$G$5:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1359,11 +1362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126048128"/>
-        <c:axId val="126049664"/>
+        <c:axId val="125986688"/>
+        <c:axId val="125988224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126048128"/>
+        <c:axId val="125986688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1371,16 +1374,17 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126049664"/>
+        <c:crossAx val="125988224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126049664"/>
+        <c:axId val="125988224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126048128"/>
+        <c:crossAx val="125986688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1403,13 +1407,18 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16474040890026623"/>
-          <c:y val="0.19410740757754782"/>
-          <c:w val="0.21987497571511833"/>
-          <c:h val="0.18111210369429559"/>
+          <c:x val="0.18809801329578324"/>
+          <c:y val="6.4026214554641636E-2"/>
+          <c:w val="0.24323267620744488"/>
+          <c:h val="0.25916084663866878"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1420,6 +1429,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1498,15 +1508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1526,6 +1536,379 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00584</cdr:x>
+      <cdr:y>0.05171</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09781</cdr:x>
+      <cdr:y>0.14927</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="38100" y="252415"/>
+          <a:ext cx="600076" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kcal/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>min</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6472</cdr:x>
+      <cdr:y>0.7948</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71533</cdr:x>
+      <cdr:y>0.87317</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4222750" y="3879850"/>
+          <a:ext cx="444501" cy="382589"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Heart</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Rate</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.55523</cdr:x>
+      <cdr:y>0.34407</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66131</cdr:x>
+      <cdr:y>0.43024</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3622675" y="1679575"/>
+          <a:ext cx="692151" cy="420689"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Carb</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Oxidation</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14355</cdr:x>
+      <cdr:y>0.53333</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.24964</cdr:x>
+      <cdr:y>0.61951</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="936625" y="2603500"/>
+          <a:ext cx="692151" cy="420689"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Fat</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Oxidation</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3453,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3469,7 +3852,7 @@
         <v>HR</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3734,7 +4117,7 @@
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -3742,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3874,7 +4257,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3891,522 +4274,517 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="B4" s="8">
-        <f t="shared" ref="B4:B10" si="0">(-3.3333*A4)+3.3333</f>
-        <v>0.99998999999999993</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" ref="C4:C10" si="1">1-B4</f>
-        <v>1.0000000000065512E-5</v>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="B5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.83332499999999987</v>
-      </c>
-      <c r="C5" s="9">
+        <v>120</v>
+      </c>
+      <c r="B5" s="7">
+        <f>((0.4065*A5)+25.671)/100</f>
+        <v>0.74450999999999989</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:C14" si="0">(-3.3333*B5)+3.3333</f>
+        <v>0.85162481700000026</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D14" si="1">1-C5</f>
+        <v>0.14837518299999974</v>
+      </c>
+      <c r="E5">
+        <f>HR_vs_EE!B31</f>
+        <v>5.3529999999999998</v>
+      </c>
+      <c r="F5">
+        <f>E5*C5</f>
+        <v>4.5587476454010014</v>
+      </c>
+      <c r="G5">
+        <f>D5*E5</f>
+        <v>0.79425235459899857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>125</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" ref="B6:B15" si="2">((0.4065*A6)+25.671)/100</f>
+        <v>0.76483499999999993</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.78387549450000016</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" si="1"/>
-        <v>0.16667500000000013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="B6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.66665999999999981</v>
-      </c>
-      <c r="C6" s="9">
-        <f t="shared" si="1"/>
-        <v>0.33334000000000019</v>
+        <v>0.21612450549999984</v>
+      </c>
+      <c r="E6">
+        <f>HR_vs_EE!B32</f>
+        <v>6.016</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F17" si="3">E6*C6</f>
+        <v>4.7157949749120007</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G17" si="4">D6*E6</f>
+        <v>1.3002050250879991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="B7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.49999500000000019</v>
-      </c>
-      <c r="C7" s="9">
+        <v>130</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.78515999999999986</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.7161261720000005</v>
+      </c>
+      <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.50000499999999981</v>
+        <v>0.2838738279999995</v>
+      </c>
+      <c r="E7">
+        <f>HR_vs_EE!B33</f>
+        <v>6.6790000000000003</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4.7830067027880032</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>1.8959932972119966</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="B8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.33333000000000013</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="A8" s="6">
+        <v>135</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8054849999999999</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.64837684950000041</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" si="1"/>
-        <v>0.66666999999999987</v>
+        <v>0.35162315049999959</v>
+      </c>
+      <c r="E8">
+        <f>HR_vs_EE!B34</f>
+        <v>7.3420000000000005</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>4.7603828290290036</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>2.5816171709709974</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>0.95</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.16666500000000006</v>
-      </c>
-      <c r="C9" s="9">
+        <v>140</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82580999999999993</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58062752700000031</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" si="1"/>
-        <v>0.83333499999999994</v>
+        <v>0.41937247299999969</v>
+      </c>
+      <c r="E9">
+        <f>HR_vs_EE!B35</f>
+        <v>8.0050000000000008</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>4.6479233536350026</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>3.3570766463649977</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="A10" s="6">
+        <v>145</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.84613499999999986</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.51287820450000066</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.48712179549999934</v>
+      </c>
+      <c r="E10">
+        <f>HR_vs_EE!B36</f>
+        <v>8.668000000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>4.4456282766060058</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>4.2223717233939952</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
+      <c r="A11" s="6">
+        <v>150</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8664599999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.44512888200000011</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55487111799999989</v>
+      </c>
+      <c r="E11">
+        <f>HR_vs_EE!B37</f>
+        <v>9.3310000000000013</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>4.1534975979420015</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>5.1775024020579998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>155</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.88678499999999982</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.37737955950000046</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.62262044049999954</v>
+      </c>
+      <c r="E12">
+        <f>HR_vs_EE!B38</f>
+        <v>9.9940000000000015</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>3.7715313176430052</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>6.2224686823569968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>160</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.90710999999999986</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30963023700000036</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.69036976299999964</v>
+      </c>
+      <c r="E13">
+        <f>HR_vs_EE!B39</f>
+        <v>10.657000000000002</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>3.2997294357090046</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>7.3572705642909977</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B14" s="7">
-        <f>((0.4065*A14)+25.671)/100</f>
-        <v>0.74450999999999989</v>
+        <f t="shared" si="2"/>
+        <v>0.92743499999999979</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:C23" si="2">(-3.3333*B14)+3.3333</f>
-        <v>0.85162481700000026</v>
+        <f t="shared" si="0"/>
+        <v>0.24188091450000071</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" ref="D14:D23" si="3">1-C14</f>
-        <v>0.14837518299999974</v>
+        <f t="shared" si="1"/>
+        <v>0.75811908549999929</v>
       </c>
       <c r="E14">
-        <f>HR_vs_EE!B31</f>
-        <v>5.3529999999999998</v>
+        <f>HR_vs_EE!B40</f>
+        <v>11.319999999999999</v>
       </c>
       <c r="F14">
-        <f>E14*C14</f>
-        <v>4.5587476454010014</v>
+        <f t="shared" si="3"/>
+        <v>2.7380919521400076</v>
       </c>
       <c r="G14">
-        <f>D14*E14</f>
-        <v>0.79425235459899857</v>
+        <f t="shared" si="4"/>
+        <v>8.5819080478599901</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" ref="B15:B24" si="4">((0.4065*A15)+25.671)/100</f>
-        <v>0.76483499999999993</v>
+        <f t="shared" si="2"/>
+        <v>0.94775999999999982</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.78387549450000016</v>
+        <f t="shared" ref="C15:C17" si="5">(-3.3333*B15)+3.3333</f>
+        <v>0.17413159200000061</v>
       </c>
       <c r="D15" s="9">
+        <f t="shared" ref="D15:D17" si="6">1-C15</f>
+        <v>0.82586840799999939</v>
+      </c>
+      <c r="E15">
+        <f>HR_vs_EE!B41</f>
+        <v>11.982999999999999</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="3"/>
-        <v>0.21612450549999984</v>
-      </c>
-      <c r="E15">
-        <f>HR_vs_EE!B32</f>
-        <v>6.016</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ref="F15:F26" si="5">E15*C15</f>
-        <v>4.7157949749120007</v>
+        <v>2.0866188669360071</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G26" si="6">D15*E15</f>
-        <v>1.3002050250879991</v>
+        <f t="shared" si="4"/>
+        <v>9.8963811330639917</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B16" s="7">
+        <f>((0.4065*A16)+25.671)/100</f>
+        <v>0.96808499999999986</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="5"/>
+        <v>0.10638226950000051</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="6"/>
+        <v>0.89361773049999949</v>
+      </c>
+      <c r="E16">
+        <f>HR_vs_EE!B42</f>
+        <v>12.645999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>1.3453101800970064</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="4"/>
-        <v>0.78515999999999986</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="2"/>
-        <v>0.7161261720000005</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" si="3"/>
-        <v>0.2838738279999995</v>
-      </c>
-      <c r="E16">
-        <f>HR_vs_EE!B33</f>
-        <v>6.6790000000000003</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>4.7830067027880032</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="6"/>
-        <v>1.8959932972119966</v>
+        <v>11.300689819902992</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B17" s="7">
+        <f>((0.4065*A17)+25.671)/100</f>
+        <v>0.98841000000000012</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="5"/>
+        <v>3.8632946999999529E-2</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="6"/>
+        <v>0.96136705300000047</v>
+      </c>
+      <c r="E17">
+        <f>HR_vs_EE!B43</f>
+        <v>13.308999999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.51416589162299375</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="4"/>
-        <v>0.8054849999999999</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" si="2"/>
-        <v>0.64837684950000041</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="3"/>
-        <v>0.35162315049999959</v>
-      </c>
-      <c r="E17">
-        <f>HR_vs_EE!B34</f>
-        <v>7.3420000000000005</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>4.7603828290290036</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
-        <v>2.5816171709709974</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>140</v>
-      </c>
-      <c r="B18" s="7">
-        <f t="shared" si="4"/>
-        <v>0.82580999999999993</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" si="2"/>
-        <v>0.58062752700000031</v>
-      </c>
-      <c r="D18" s="9">
-        <f t="shared" si="3"/>
-        <v>0.41937247299999969</v>
-      </c>
-      <c r="E18">
-        <f>HR_vs_EE!B35</f>
-        <v>8.0050000000000008</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>4.6479233536350026</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="6"/>
-        <v>3.3570766463649977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>145</v>
-      </c>
-      <c r="B19" s="7">
-        <f t="shared" si="4"/>
-        <v>0.84613499999999986</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" si="2"/>
-        <v>0.51287820450000066</v>
-      </c>
-      <c r="D19" s="9">
-        <f t="shared" si="3"/>
-        <v>0.48712179549999934</v>
-      </c>
-      <c r="E19">
-        <f>HR_vs_EE!B36</f>
-        <v>8.668000000000001</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="5"/>
-        <v>4.4456282766060058</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="6"/>
-        <v>4.2223717233939952</v>
+        <v>12.794834108377005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>150</v>
-      </c>
-      <c r="B20" s="7">
-        <f t="shared" si="4"/>
-        <v>0.8664599999999999</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" si="2"/>
-        <v>0.44512888200000011</v>
-      </c>
-      <c r="D20" s="9">
-        <f t="shared" si="3"/>
-        <v>0.55487111799999989</v>
-      </c>
-      <c r="E20">
-        <f>HR_vs_EE!B37</f>
-        <v>9.3310000000000013</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
-        <v>4.1534975979420015</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
-        <v>5.1775024020579998</v>
+      <c r="A20" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" ref="B20:B26" si="7">(-3.3333*A20)+3.3333</f>
+        <v>0.99998999999999993</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20:C26" si="8">1-B20</f>
+        <v>1.0000000000065512E-5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>155</v>
-      </c>
-      <c r="B21" s="7">
-        <f t="shared" si="4"/>
-        <v>0.88678499999999982</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="2"/>
-        <v>0.37737955950000046</v>
-      </c>
-      <c r="D21" s="9">
-        <f t="shared" si="3"/>
-        <v>0.62262044049999954</v>
-      </c>
-      <c r="E21">
-        <f>HR_vs_EE!B38</f>
-        <v>9.9940000000000015</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>3.7715313176430052</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
-        <v>6.2224686823569968</v>
+        <v>0.75</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="7"/>
+        <v>0.83332499999999987</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="8"/>
+        <v>0.16667500000000013</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>160</v>
-      </c>
-      <c r="B22" s="7">
-        <f t="shared" si="4"/>
-        <v>0.90710999999999986</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="2"/>
-        <v>0.30963023700000036</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" si="3"/>
-        <v>0.69036976299999964</v>
-      </c>
-      <c r="E22">
-        <f>HR_vs_EE!B39</f>
-        <v>10.657000000000002</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>3.2997294357090046</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
-        <v>7.3572705642909977</v>
+      <c r="A22" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="7"/>
+        <v>0.66665999999999981</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" si="8"/>
+        <v>0.33334000000000019</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>165</v>
-      </c>
-      <c r="B23" s="7">
-        <f t="shared" si="4"/>
-        <v>0.92743499999999979</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="2"/>
-        <v>0.24188091450000071</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="3"/>
-        <v>0.75811908549999929</v>
-      </c>
-      <c r="E23">
-        <f>HR_vs_EE!B40</f>
-        <v>11.319999999999999</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>2.7380919521400076</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
-        <v>8.5819080478599901</v>
+        <v>0.85</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.49999500000000019</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" si="8"/>
+        <v>0.50000499999999981</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>170</v>
-      </c>
-      <c r="B24" s="7">
-        <f t="shared" si="4"/>
-        <v>0.94775999999999982</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" ref="C24:C26" si="7">(-3.3333*B24)+3.3333</f>
-        <v>0.17413159200000061</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" ref="D24:D26" si="8">1-C24</f>
-        <v>0.82586840799999939</v>
-      </c>
-      <c r="E24">
-        <f>HR_vs_EE!B41</f>
-        <v>11.982999999999999</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>2.0866188669360071</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
-        <v>9.8963811330639917</v>
+      <c r="A24" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="7"/>
+        <v>0.33333000000000013</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" si="8"/>
+        <v>0.66666999999999987</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>175</v>
-      </c>
-      <c r="B25" s="7">
-        <f>((0.4065*A25)+25.671)/100</f>
-        <v>0.96808499999999986</v>
-      </c>
-      <c r="C25" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="B25" s="8">
         <f t="shared" si="7"/>
-        <v>0.10638226950000051</v>
-      </c>
-      <c r="D25" s="9">
+        <v>0.16666500000000006</v>
+      </c>
+      <c r="C25" s="9">
         <f t="shared" si="8"/>
-        <v>0.89361773049999949</v>
-      </c>
-      <c r="E25">
-        <f>HR_vs_EE!B42</f>
-        <v>12.645999999999999</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="5"/>
-        <v>1.3453101800970064</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="6"/>
-        <v>11.300689819902992</v>
+        <v>0.83333499999999994</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>180</v>
-      </c>
-      <c r="B26" s="7">
-        <f>((0.4065*A26)+25.671)/100</f>
-        <v>0.98841000000000012</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="A26" s="7">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8">
         <f t="shared" si="7"/>
-        <v>3.8632946999999529E-2</v>
-      </c>
-      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
         <f t="shared" si="8"/>
-        <v>0.96136705300000047</v>
-      </c>
-      <c r="E26">
-        <f>HR_vs_EE!B43</f>
-        <v>13.308999999999999</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="5"/>
-        <v>0.51416589162299375</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="6"/>
-        <v>12.794834108377005</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/n of 1/Others n of 1/VO2max_Others/SM_VO2max/SM_VO2max_Test.xlsx
+++ b/n of 1/Others n of 1/VO2max_Others/SM_VO2max/SM_VO2max_Test.xlsx
@@ -4,15 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="27105" windowHeight="9900" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="HR_vs_RER" sheetId="3" r:id="rId2"/>
-    <sheet name="HR_vs_EE" sheetId="6" r:id="rId3"/>
-    <sheet name="Cal_Distr" sheetId="4" r:id="rId4"/>
+    <sheet name="VO2max" sheetId="1" r:id="rId1"/>
+    <sheet name="HR_VO2Perc" sheetId="7" r:id="rId2"/>
+    <sheet name="HR_Fat-Ox(g)" sheetId="8" r:id="rId3"/>
+    <sheet name="HR_CHO-Ox(g)" sheetId="9" r:id="rId4"/>
+    <sheet name="HR_vs_RER" sheetId="3" r:id="rId5"/>
+    <sheet name="HR_vs_EE" sheetId="6" r:id="rId6"/>
+    <sheet name="Cal_Distr" sheetId="4" r:id="rId7"/>
+    <sheet name="HR_CHO-FAT" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,16 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>VO2/kg</t>
-  </si>
-  <si>
-    <t>VCO2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>REE</t>
   </si>
@@ -46,18 +41,6 @@
   </si>
   <si>
     <t>RER</t>
-  </si>
-  <si>
-    <t>Fract Fat</t>
-  </si>
-  <si>
-    <t>Fat g/min</t>
-  </si>
-  <si>
-    <t>Fract Carbs</t>
-  </si>
-  <si>
-    <t>Carbs g/min</t>
   </si>
   <si>
     <t>Max</t>
@@ -105,28 +88,103 @@
   <si>
     <t>Carbs [kcal/min]</t>
   </si>
+  <si>
+    <t>TIME
+(min:sec)</t>
+  </si>
+  <si>
+    <t>VO2
+STPD
+L/min</t>
+  </si>
+  <si>
+    <t>VC02
+STPD
+ml/kg/m</t>
+  </si>
+  <si>
+    <t>METS</t>
+  </si>
+  <si>
+    <t>V02/kg
+STPD
+ml/kg/m</t>
+  </si>
+  <si>
+    <t>VE
+STPD
+ml/kg/m</t>
+  </si>
+  <si>
+    <t>TM SPD
+mph</t>
+  </si>
+  <si>
+    <t>TM GRD
+%Grd</t>
+  </si>
+  <si>
+    <t>RR
+BPM</t>
+  </si>
+  <si>
+    <t>Vt
+BTPS
+L</t>
+  </si>
+  <si>
+    <t>FE02 %</t>
+  </si>
+  <si>
+    <t>FEC02 %</t>
+  </si>
+  <si>
+    <t>O2pulse
+STPD
+ml/beat</t>
+  </si>
+  <si>
+    <t>VO2max Test</t>
+  </si>
+  <si>
+    <t>VO2max</t>
+  </si>
+  <si>
+    <t>ml/kg/min</t>
+  </si>
+  <si>
+    <t>HR
+[bpm]</t>
+  </si>
+  <si>
+    <t>%Carb</t>
+  </si>
+  <si>
+    <t>FatOx 
+[g/min]</t>
+  </si>
+  <si>
+    <t>ChoOx 
+[g/min]</t>
+  </si>
+  <si>
+    <t>FatOx 
+[kCal/min]</t>
+  </si>
+  <si>
+    <t>CHO-Ox 
+[kCal/min]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh\:mm"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,18 +206,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -229,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -251,6 +336,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,6 +440,952 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HR_VO2Perc!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%VO2Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3138670166229218E-2"/>
+                  <c:y val="5.9826115485564303E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HR_VO2Perc!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HR_VO2Perc!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>6.5714285714285711E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7142857142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4285714285714278E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1428571428571428E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.3457142857142857</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30285714285714282</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3914285714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36285714285714282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.48000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48285714285714282</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60285714285714287</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72571428571428565</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.84571428571428575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124887040"/>
+        <c:axId val="124888576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124887040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124888576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124888576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124887040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HR_Fat-Ox(g)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FatOx 
+[g/min]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9660323709536311E-2"/>
+                  <c:y val="0.1086369932925051"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HR_Fat-Ox(g)'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HR_Fat-Ox(g)'!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.17972266666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14694399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22893866666666662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14478933333333327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2597333333333297E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10278399999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1444906666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1950293333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88207999999999975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0610613333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1806613333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87047999999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71605866666666673</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0134186666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80998933333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77084799999999964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87372799999999984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78003733333333303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0241439999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86508266666666633</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96496533333333323</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74748266666666652</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80596266666666616</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90542399999999956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64469333333333256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125229696"/>
+        <c:axId val="125043072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125229696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="170"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125043072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125043072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125229696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HR_CHO-Ox(g)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ChoOx 
+[g/min]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40684959746381233"/>
+                  <c:y val="0.31455807037010308"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.001x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 0.2082x + 10.376
+R² = 0.9547</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HR_CHO-Ox(g)'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HR_CHO-Ox(g)'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.3943999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3616000000000033E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.924800000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11846400000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24327600000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34689600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42513600000000018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50150400000000017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.3754799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.45166799999999968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.31252799999999942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.318000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.1972000000000164E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1425119999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2843999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26683200000000035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.39690000000000047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49147200000000041</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53415600000000063</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70131600000000083</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1268840000000011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6603080000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1993240000000012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1322640000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6640360000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.989040000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125093376"/>
+        <c:axId val="125094912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125093376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="170"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125094912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125094912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125093376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.129238358172029"/>
+          <c:y val="0.26009524806664341"/>
+          <c:w val="0.14206943395752136"/>
+          <c:h val="0.14665851782278869"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
     <c:title>
@@ -571,11 +1618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126171776"/>
-        <c:axId val="126177664"/>
+        <c:axId val="125567744"/>
+        <c:axId val="125569280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126171776"/>
+        <c:axId val="125567744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -620,12 +1667,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126177664"/>
+        <c:crossAx val="125569280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126177664"/>
+        <c:axId val="125569280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -669,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126171776"/>
+        <c:crossAx val="125567744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -737,7 +1784,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -935,82 +1982,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.91569999999999985</c:v>
+                  <c:v>1.1619999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79649999999999999</c:v>
+                  <c:v>9.8400000000000007E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3155999999999999</c:v>
+                  <c:v>1.6509999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.997</c:v>
+                  <c:v>1.2339999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83989999999999998</c:v>
+                  <c:v>1.0669999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2799000000000003</c:v>
+                  <c:v>1.6059999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6396999999999997</c:v>
+                  <c:v>2.0839999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0395999999999996</c:v>
+                  <c:v>2.6120000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6215999999999995</c:v>
+                  <c:v>4.4699999999999991E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4104000000000001</c:v>
+                  <c:v>5.3769999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3271999999999995</c:v>
+                  <c:v>6.5110000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2978000000000005</c:v>
+                  <c:v>5.2649999999999988E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8923999999999999</c:v>
+                  <c:v>4.3310000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8135999999999992</c:v>
+                  <c:v>5.9379999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2208999999999994</c:v>
+                  <c:v>5.2369999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4637000000000002</c:v>
+                  <c:v>5.5589999999999988E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3025000000000002</c:v>
+                  <c:v>6.6150000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4639999999999995</c:v>
+                  <c:v>6.8259999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0663</c:v>
+                  <c:v>6.3590000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7004999999999999</c:v>
+                  <c:v>8.3490000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.7504999999999997</c:v>
+                  <c:v>8.5370000000000012E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.3923999999999985</c:v>
+                  <c:v>1.0643E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.4413000000000018</c:v>
+                  <c:v>1.0781000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.796200000000001</c:v>
+                  <c:v>1.3737999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.166699999999999</c:v>
+                  <c:v>1.3059000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.8421</c:v>
+                  <c:v>1.5109999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,11 +2072,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126137856"/>
-        <c:axId val="126139392"/>
+        <c:axId val="125613184"/>
+        <c:axId val="125614720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126137856"/>
+        <c:axId val="125613184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160"/>
@@ -1041,12 +2088,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126139392"/>
+        <c:crossAx val="125614720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126139392"/>
+        <c:axId val="125614720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +2104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126137856"/>
+        <c:crossAx val="125613184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1088,7 +2135,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1362,11 +2409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125986688"/>
-        <c:axId val="125988224"/>
+        <c:axId val="125691776"/>
+        <c:axId val="125693312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125986688"/>
+        <c:axId val="125691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1379,12 +2426,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125988224"/>
+        <c:crossAx val="125693312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125988224"/>
+        <c:axId val="125693312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +2443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125986688"/>
+        <c:crossAx val="125691776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1433,18 +2480,655 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HR_CHO-FAT'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FatOx 
+[kCal/min]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.41786187507887035"/>
+                  <c:y val="-0.12782554752196099"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HR_CHO-FAT'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HR_CHO-FAT'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.6175039999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3224959999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0604479999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3031039999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56337599999999965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92505599999999943</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3004159999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7552639999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9387199999999982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5495519999999985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.625951999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8343199999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4445280000000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1207679999999982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2899039999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9376319999999971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9379999999999988</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8635519999999985</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0203359999999968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2172959999999975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7857439999999967</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.6846879999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.7273439999999987</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2536639999999952</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1488159999999965</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8022399999999932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HR_CHO-FAT'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CHO-Ox 
+[kCal/min]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.344430740512342E-2"/>
+                  <c:y val="3.8890006666117637E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HR_CHO-FAT'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HR_CHO-FAT'!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5.5775999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4464000000000131E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31699200000000044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47385600000000044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97310400000000019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3875840000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7005440000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0060160000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5019199999999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8066719999999987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.2501119999999977</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.25272000000000072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20788800000000066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.570047999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25137599999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0673280000000014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5876000000000019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9658880000000016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1366240000000025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8052640000000033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5075360000000044</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6412320000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.7972960000000047</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.529056000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.656144000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.956160000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125452288"/>
+        <c:axId val="125453824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125452288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="190"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125453824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125453824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125452288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7771962866047766E-2"/>
+          <c:y val="0.1344876770544175"/>
+          <c:w val="0.35202491470095931"/>
+          <c:h val="0.18654840073995299"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>494640</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37440</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
@@ -1468,7 +3152,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1503,7 +3187,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1538,7 +3222,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -1911,6 +3595,316 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923925" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="3790950"/>
+          <a:ext cx="923925" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Heart Rate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>(bpm)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="462884" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="228600"/>
+          <a:ext cx="462884" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kcal/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>min</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12521</cdr:x>
+      <cdr:y>0.89332</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7142</cdr:x>
+      <cdr:y>0.95543</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="841375" y="4479925"/>
+          <a:ext cx="3957943" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Heart Rate (x) vs Fat/Carb Oxidation [kCal/min]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> (y)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2198,1348 +4192,1755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="4.375" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.125" customWidth="1"/>
+    <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.875" customWidth="1"/>
+    <col min="24" max="24" width="2.125" customWidth="1"/>
+    <col min="25" max="26" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="R4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Z4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.17</v>
+      </c>
+      <c r="G5">
+        <v>0.71</v>
+      </c>
+      <c r="M5">
+        <v>83</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="4">
+        <f>1.44*((3.9*B5)+(1.1*E5))</f>
+        <v>1.6732799999999999</v>
+      </c>
+      <c r="R5" s="26">
+        <f t="shared" ref="R5:R30" si="0">1-((G5-0.7)/0.3)</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="S5" s="26">
+        <f t="shared" ref="S5:S30" si="1">1-R5</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="T5" s="4">
+        <f>((R5*Q5)/9)</f>
+        <v>0.17972266666666664</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" ref="U5:U30" si="2">(S5*Q5/(4))</f>
+        <v>1.3943999999999996E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f>T5*9</f>
+        <v>1.6175039999999998</v>
+      </c>
+      <c r="W5" s="4">
+        <f>U5*4</f>
+        <v>5.5775999999999985E-2</v>
+      </c>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="2">
+        <f>$C5/$B$2</f>
+        <v>6.5714285714285711E-2</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" ref="Z5:Z30" si="3">Y5</f>
+        <v>6.5714285714285711E-2</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA30" si="4">G5*100</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.21</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E6">
+        <v>0.15</v>
+      </c>
+      <c r="G6">
+        <v>0.72</v>
+      </c>
+      <c r="M6">
+        <v>86</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="4">
+        <f t="shared" ref="Q6:Q30" si="5">1.44*((3.9*B6)+(1.1*E6))</f>
+        <v>1.41696</v>
+      </c>
+      <c r="R6" s="26">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="S6" s="26">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666763E-2</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" ref="T6:T30" si="6">((R6*Q6)/9)</f>
+        <v>0.14694399999999999</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3616000000000033E-2</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" ref="V6:V30" si="7">T6*9</f>
+        <v>1.3224959999999999</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" ref="W6:W30" si="8">U6*4</f>
+        <v>9.4464000000000131E-2</v>
+      </c>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="2">
+        <f t="shared" ref="Y6:Y30" si="9">C6/$B$32</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="3"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.35</v>
+      </c>
+      <c r="C7">
+        <v>3.3</v>
+      </c>
+      <c r="E7">
+        <v>0.26</v>
+      </c>
+      <c r="G7">
+        <v>0.74</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="4">
+        <f t="shared" si="5"/>
+        <v>2.37744</v>
+      </c>
+      <c r="R7" s="26">
+        <f t="shared" si="0"/>
+        <v>0.86666666666666647</v>
+      </c>
+      <c r="S7" s="26">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333353</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="6"/>
+        <v>0.22893866666666662</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="2"/>
+        <v>7.924800000000011E-2</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="7"/>
+        <v>2.0604479999999996</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="8"/>
+        <v>0.31699200000000044</v>
+      </c>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="2">
+        <f t="shared" si="9"/>
+        <v>9.4285714285714278E-2</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="3"/>
+        <v>9.4285714285714278E-2</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.26</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>0.78</v>
+      </c>
+      <c r="M8">
+        <v>99</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="4">
+        <f t="shared" si="5"/>
+        <v>1.7769599999999999</v>
+      </c>
+      <c r="R8" s="26">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333306</v>
+      </c>
+      <c r="S8" s="26">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666694</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="6"/>
+        <v>0.14478933333333327</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11846400000000011</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3031039999999994</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="8"/>
+        <v>0.47385600000000044</v>
+      </c>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="2">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7.0138888888888903E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.22</v>
+      </c>
+      <c r="C9">
+        <v>2.1</v>
+      </c>
+      <c r="E9">
+        <v>0.19</v>
+      </c>
+      <c r="G9">
+        <v>0.89</v>
+      </c>
+      <c r="M9">
+        <v>86</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.5364799999999998</v>
+      </c>
+      <c r="R9" s="26">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666647</v>
+      </c>
+      <c r="S9" s="26">
+        <f t="shared" si="1"/>
+        <v>0.63333333333333353</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="6"/>
+        <v>6.2597333333333297E-2</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.24327600000000005</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="7"/>
+        <v>0.56337599999999965</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="8"/>
+        <v>0.97310400000000019</v>
+      </c>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="2">
+        <f t="shared" si="9"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.33</v>
+      </c>
+      <c r="C10">
+        <v>3.2</v>
+      </c>
+      <c r="E10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.88</v>
+      </c>
+      <c r="M10">
+        <v>92</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="4">
+        <f t="shared" si="5"/>
+        <v>2.3126399999999996</v>
+      </c>
+      <c r="R10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.3999999999999998</v>
+      </c>
+      <c r="S10" s="26">
+        <f t="shared" si="1"/>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="6"/>
+        <v>0.10278399999999993</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.34689600000000004</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="7"/>
+        <v>0.92505599999999943</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3875840000000002</v>
+      </c>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="2">
+        <f t="shared" si="9"/>
+        <v>9.1428571428571428E-2</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="3"/>
+        <v>9.1428571428571428E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.43</v>
+      </c>
+      <c r="C11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.37</v>
+      </c>
+      <c r="G11">
+        <v>0.87</v>
+      </c>
+      <c r="M11">
+        <v>91</v>
+      </c>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="4">
+        <f t="shared" si="5"/>
+        <v>3.0009600000000001</v>
+      </c>
+      <c r="R11" s="26">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333313</v>
+      </c>
+      <c r="S11" s="26">
+        <f t="shared" si="1"/>
+        <v>0.56666666666666687</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1444906666666666</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.42513600000000018</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3004159999999994</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="8"/>
+        <v>1.7005440000000007</v>
+      </c>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11714285714285713</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11714285714285713</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0.111805555555556</v>
+      </c>
+      <c r="B12">
+        <v>0.54</v>
+      </c>
+      <c r="C12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E12">
+        <v>0.46</v>
+      </c>
+      <c r="G12">
+        <v>0.86</v>
+      </c>
+      <c r="M12">
+        <v>110</v>
+      </c>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="4">
+        <f t="shared" si="5"/>
+        <v>3.7612800000000002</v>
+      </c>
+      <c r="R12" s="26">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666656</v>
+      </c>
+      <c r="S12" s="26">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333344</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1950293333333333</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.50150400000000017</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="7"/>
+        <v>1.7552639999999997</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="8"/>
+        <v>2.0060160000000007</v>
+      </c>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.14571428571428571</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14571428571428571</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B13">
+        <v>0.96</v>
+      </c>
+      <c r="C13">
+        <v>9.1</v>
+      </c>
+      <c r="E13">
+        <v>0.66</v>
+      </c>
+      <c r="G13">
+        <v>0.63</v>
+      </c>
+      <c r="M13">
+        <v>108</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="4">
+        <f t="shared" si="5"/>
+        <v>6.436799999999999</v>
+      </c>
+      <c r="R13" s="26">
+        <f t="shared" si="0"/>
+        <v>1.2333333333333332</v>
+      </c>
+      <c r="S13" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.23333333333333317</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="6"/>
+        <v>0.88207999999999975</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.3754799999999997</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="7"/>
+        <v>7.9387199999999982</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.5019199999999988</v>
+      </c>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="2">
+        <f t="shared" si="9"/>
+        <v>0.26</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="B14">
+        <v>1.17</v>
+      </c>
+      <c r="C14">
+        <v>11.1</v>
+      </c>
+      <c r="E14">
+        <v>0.74</v>
+      </c>
+      <c r="G14">
+        <v>0.63</v>
+      </c>
+      <c r="M14">
+        <v>109</v>
+      </c>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="4">
+        <f t="shared" si="5"/>
+        <v>7.7428799999999995</v>
+      </c>
+      <c r="R14" s="26">
+        <f t="shared" si="0"/>
+        <v>1.2333333333333332</v>
+      </c>
+      <c r="S14" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.23333333333333317</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0610613333333332</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.45166799999999968</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="7"/>
+        <v>9.5495519999999985</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.8066719999999987</v>
+      </c>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="2">
+        <f t="shared" si="9"/>
+        <v>0.31714285714285712</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.31714285714285712</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="B15">
+        <v>1.41</v>
+      </c>
+      <c r="C15">
+        <v>13.4</v>
+      </c>
+      <c r="E15">
+        <v>0.92</v>
+      </c>
+      <c r="G15">
+        <v>0.66</v>
+      </c>
+      <c r="M15">
+        <v>111</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="4">
+        <f t="shared" si="5"/>
+        <v>9.3758400000000002</v>
+      </c>
+      <c r="R15" s="26">
+        <f t="shared" si="0"/>
+        <v>1.1333333333333331</v>
+      </c>
+      <c r="S15" s="26">
+        <f t="shared" si="1"/>
+        <v>-0.13333333333333308</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1806613333333331</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.31252799999999942</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="7"/>
+        <v>10.625951999999998</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.2501119999999977</v>
+      </c>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38285714285714284</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.38285714285714284</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0.16805555555555601</v>
+      </c>
+      <c r="B16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C16">
+        <v>10.8</v>
+      </c>
+      <c r="E16">
+        <v>0.78</v>
+      </c>
+      <c r="G16">
+        <v>0.69</v>
+      </c>
+      <c r="M16">
+        <v>109</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="4">
+        <f t="shared" si="5"/>
+        <v>7.5815999999999981</v>
+      </c>
+      <c r="R16" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="S16" s="26">
+        <f t="shared" si="1"/>
+        <v>-3.3333333333333437E-2</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="6"/>
+        <v>0.87047999999999992</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.318000000000018E-2</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="7"/>
+        <v>7.8343199999999991</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="8"/>
+        <v>-0.25272000000000072</v>
+      </c>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="2">
+        <f t="shared" si="9"/>
+        <v>0.30857142857142861</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.30857142857142861</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="B17">
+        <v>0.93</v>
+      </c>
+      <c r="C17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E17">
+        <v>0.64</v>
+      </c>
+      <c r="G17">
+        <v>0.69</v>
+      </c>
+      <c r="M17">
+        <v>109</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="4">
+        <f t="shared" si="5"/>
+        <v>6.2366400000000004</v>
+      </c>
+      <c r="R17" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="S17" s="26">
+        <f t="shared" si="1"/>
+        <v>-3.3333333333333437E-2</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="6"/>
+        <v>0.71605866666666673</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="2"/>
+        <v>-5.1972000000000164E-2</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="7"/>
+        <v>6.4445280000000009</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="8"/>
+        <v>-0.20788800000000066</v>
+      </c>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="2">
+        <f t="shared" si="9"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0.19513888888888889</v>
+      </c>
+      <c r="B18">
+        <v>1.28</v>
+      </c>
+      <c r="C18">
+        <v>12.1</v>
+      </c>
+      <c r="E18">
+        <v>0.86</v>
+      </c>
+      <c r="G18">
+        <v>0.68</v>
+      </c>
+      <c r="M18">
+        <v>106</v>
+      </c>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="4">
+        <f t="shared" si="5"/>
+        <v>8.5507200000000001</v>
+      </c>
+      <c r="R18" s="26">
+        <f t="shared" si="0"/>
+        <v>1.0666666666666664</v>
+      </c>
+      <c r="S18" s="26">
+        <f t="shared" si="1"/>
+        <v>-6.666666666666643E-2</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0134186666666665</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.1425119999999995</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="7"/>
+        <v>9.1207679999999982</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="8"/>
+        <v>-0.570047999999998</v>
+      </c>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="2">
+        <f t="shared" si="9"/>
+        <v>0.3457142857142857</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.3457142857142857</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0.20902777777777801</v>
+      </c>
+      <c r="B19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C19">
+        <v>10.6</v>
+      </c>
+      <c r="E19">
+        <v>0.79</v>
+      </c>
+      <c r="G19">
+        <v>0.71</v>
+      </c>
+      <c r="M19">
+        <v>112</v>
+      </c>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="4">
+        <f t="shared" si="5"/>
+        <v>7.5412799999999995</v>
+      </c>
+      <c r="R19" s="26">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="S19" s="26">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="6"/>
+        <v>0.80998933333333334</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="2"/>
+        <v>6.2843999999999983E-2</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="7"/>
+        <v>7.2899039999999999</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="8"/>
+        <v>0.25137599999999993</v>
+      </c>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="2">
+        <f t="shared" si="9"/>
+        <v>0.30285714285714282</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.30285714285714282</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0.22361111111111101</v>
+      </c>
+      <c r="B20">
+        <v>1.18</v>
+      </c>
+      <c r="C20">
+        <v>11.2</v>
+      </c>
+      <c r="E20">
+        <v>0.87</v>
+      </c>
+      <c r="G20">
+        <v>0.74</v>
+      </c>
+      <c r="M20">
+        <v>113</v>
+      </c>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="4">
+        <f t="shared" si="5"/>
+        <v>8.0049599999999987</v>
+      </c>
+      <c r="R20" s="26">
+        <f t="shared" si="0"/>
+        <v>0.86666666666666647</v>
+      </c>
+      <c r="S20" s="26">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333353</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="6"/>
+        <v>0.77084799999999964</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="2"/>
+        <v>0.26683200000000035</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="7"/>
+        <v>6.9376319999999971</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0673280000000014</v>
+      </c>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="2">
+        <f t="shared" si="9"/>
+        <v>0.32</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0.23611111111111099</v>
+      </c>
+      <c r="B21">
+        <v>1.4</v>
+      </c>
+      <c r="C21">
+        <v>13.3</v>
+      </c>
+      <c r="E21">
+        <v>1.05</v>
+      </c>
+      <c r="G21">
+        <v>0.75</v>
+      </c>
+      <c r="M21">
+        <v>125</v>
+      </c>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="4">
+        <f t="shared" si="5"/>
+        <v>9.5256000000000007</v>
+      </c>
+      <c r="R21" s="26">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="S21" s="26">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666685</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="6"/>
+        <v>0.8819999999999999</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="2"/>
+        <v>0.39690000000000047</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" si="7"/>
+        <v>7.9379999999999988</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5876000000000019</v>
+      </c>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="2">
+        <f t="shared" si="9"/>
+        <v>0.38</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B22">
+        <v>1.44</v>
+      </c>
+      <c r="C22">
+        <v>13.7</v>
+      </c>
+      <c r="E22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.76</v>
+      </c>
+      <c r="M22">
+        <v>125</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="4">
+        <f t="shared" si="5"/>
+        <v>9.82944</v>
+      </c>
+      <c r="R22" s="26">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="S22" s="26">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="6"/>
+        <v>0.87372799999999984</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="2"/>
+        <v>0.49147200000000041</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" si="7"/>
+        <v>7.8635519999999985</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" si="8"/>
+        <v>1.9658880000000016</v>
+      </c>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="2">
+        <f t="shared" si="9"/>
+        <v>0.3914285714285714</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.3914285714285714</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0.26388888888888901</v>
+      </c>
+      <c r="B23">
+        <v>1.34</v>
+      </c>
+      <c r="C23">
+        <v>12.7</v>
+      </c>
+      <c r="E23">
+        <v>1.03</v>
+      </c>
+      <c r="G23">
+        <v>0.77</v>
+      </c>
+      <c r="M23">
+        <v>127</v>
+      </c>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="4">
+        <f t="shared" si="5"/>
+        <v>9.1569599999999998</v>
+      </c>
+      <c r="R23" s="26">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666639</v>
+      </c>
+      <c r="S23" s="26">
+        <f t="shared" si="1"/>
+        <v>0.23333333333333361</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.78003733333333303</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="2"/>
+        <v>0.53415600000000063</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="7"/>
+        <v>7.0203359999999968</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="8"/>
+        <v>2.1366240000000025</v>
+      </c>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="2">
+        <f t="shared" si="9"/>
+        <v>0.36285714285714282</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.36285714285714282</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0.27916666666666701</v>
+      </c>
+      <c r="B24">
+        <v>1.76</v>
+      </c>
+      <c r="C24">
+        <v>16.8</v>
+      </c>
+      <c r="E24">
+        <v>1.35</v>
+      </c>
+      <c r="G24">
+        <v>0.77</v>
+      </c>
+      <c r="M24">
+        <v>129</v>
+      </c>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="4">
+        <f t="shared" si="5"/>
+        <v>12.02256</v>
+      </c>
+      <c r="R24" s="26">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666639</v>
+      </c>
+      <c r="S24" s="26">
+        <f t="shared" si="1"/>
+        <v>0.23333333333333361</v>
+      </c>
+      <c r="T24" s="4">
+        <f t="shared" si="6"/>
+        <v>1.0241439999999997</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="2"/>
+        <v>0.70131600000000083</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" si="7"/>
+        <v>9.2172959999999975</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="8"/>
+        <v>2.8052640000000033</v>
+      </c>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="2">
+        <f t="shared" si="9"/>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0.29305555555555601</v>
+      </c>
+      <c r="B25">
+        <v>1.78</v>
+      </c>
+      <c r="C25">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E25">
+        <v>1.45</v>
+      </c>
+      <c r="G25">
+        <v>0.81</v>
+      </c>
+      <c r="M25">
+        <v>135</v>
+      </c>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="4">
+        <f t="shared" si="5"/>
+        <v>12.293280000000001</v>
+      </c>
+      <c r="R25" s="26">
+        <f t="shared" si="0"/>
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="S25" s="26">
+        <f t="shared" si="1"/>
+        <v>0.36666666666666703</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="6"/>
+        <v>0.86508266666666633</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1268840000000011</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="7"/>
+        <v>7.7857439999999967</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="8"/>
+        <v>4.5075360000000044</v>
+      </c>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="2">
+        <f t="shared" si="9"/>
+        <v>0.48285714285714282</v>
+      </c>
+      <c r="Z25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.48285714285714282</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="B26">
+        <v>2.21</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>1.84</v>
+      </c>
+      <c r="G26">
+        <v>0.83</v>
+      </c>
+      <c r="M26">
+        <v>138</v>
+      </c>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="4">
+        <f t="shared" si="5"/>
+        <v>15.32592</v>
+      </c>
+      <c r="R26" s="26">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="S26" s="26">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="T26" s="4">
+        <f t="shared" si="6"/>
+        <v>0.96496533333333323</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6603080000000001</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" si="7"/>
+        <v>8.6846879999999995</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" si="8"/>
+        <v>6.6412320000000005</v>
+      </c>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="2">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0.32152777777777802</v>
+      </c>
+      <c r="B27">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C27">
+        <v>21.1</v>
+      </c>
+      <c r="E27">
+        <v>1.93</v>
+      </c>
+      <c r="G27">
+        <v>0.87</v>
+      </c>
+      <c r="M27">
+        <v>147</v>
+      </c>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="4">
+        <f t="shared" si="5"/>
+        <v>15.524640000000003</v>
+      </c>
+      <c r="R27" s="26">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333313</v>
+      </c>
+      <c r="S27" s="26">
+        <f t="shared" si="1"/>
+        <v>0.56666666666666687</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="6"/>
+        <v>0.74748266666666652</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1993240000000012</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="7"/>
+        <v>6.7273439999999987</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="8"/>
+        <v>8.7972960000000047</v>
+      </c>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="2">
+        <f t="shared" si="9"/>
+        <v>0.60285714285714287</v>
+      </c>
+      <c r="Z27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.60285714285714287</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B28">
+        <v>2.84</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2.42</v>
+      </c>
+      <c r="G28">
+        <v>0.89</v>
+      </c>
+      <c r="M28">
+        <v>155</v>
+      </c>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="4">
+        <f t="shared" si="5"/>
+        <v>19.782719999999998</v>
+      </c>
+      <c r="R28" s="26">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666647</v>
+      </c>
+      <c r="S28" s="26">
+        <f t="shared" si="1"/>
+        <v>0.63333333333333353</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="6"/>
+        <v>0.80596266666666616</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1322640000000006</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="7"/>
+        <v>7.2536639999999952</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" si="8"/>
+        <v>12.529056000000002</v>
+      </c>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="2">
+        <f t="shared" si="9"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0.34930555555555598</v>
+      </c>
+      <c r="B29">
+        <v>2.68</v>
+      </c>
+      <c r="C29">
+        <v>25.4</v>
+      </c>
+      <c r="E29">
+        <v>2.37</v>
+      </c>
+      <c r="G29">
+        <v>0.87</v>
+      </c>
+      <c r="M29">
+        <v>155</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="4">
+        <f t="shared" si="5"/>
+        <v>18.804960000000001</v>
+      </c>
+      <c r="R29" s="26">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333313</v>
+      </c>
+      <c r="S29" s="26">
+        <f t="shared" si="1"/>
+        <v>0.56666666666666687</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="6"/>
+        <v>0.90542399999999956</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6640360000000012</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="7"/>
+        <v>8.1488159999999965</v>
+      </c>
+      <c r="W29" s="4">
+        <f t="shared" si="8"/>
+        <v>10.656144000000005</v>
+      </c>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="2">
+        <f t="shared" si="9"/>
+        <v>0.72571428571428565</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.72571428571428565</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>0.36180555555555599</v>
+      </c>
+      <c r="B30">
+        <v>3.11</v>
+      </c>
+      <c r="C30">
+        <v>29.6</v>
+      </c>
+      <c r="E30">
+        <v>2.71</v>
+      </c>
+      <c r="G30">
+        <v>0.92</v>
+      </c>
+      <c r="M30">
+        <v>163</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="4">
+        <f t="shared" si="5"/>
+        <v>21.758399999999998</v>
+      </c>
+      <c r="R30" s="26">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666639</v>
+      </c>
+      <c r="S30" s="26">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333361</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="6"/>
+        <v>0.64469333333333256</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="2"/>
+        <v>3.989040000000001</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="7"/>
+        <v>5.8022399999999932</v>
+      </c>
+      <c r="W30" s="4">
+        <f t="shared" si="8"/>
+        <v>15.956160000000004</v>
+      </c>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="2">
+        <f t="shared" si="9"/>
+        <v>0.84571428571428575</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.84571428571428575</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="B2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.17</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D27" si="0">((3.9*B2)+(1.1*C2))*144</f>
-        <v>1318.6079999999997</v>
-      </c>
-      <c r="E2" s="2">
-        <f>$B2/$B$29</f>
-        <v>6.5714285714285711E-2</v>
-      </c>
-      <c r="F2">
-        <v>83</v>
-      </c>
-      <c r="G2" s="3">
-        <f>E2</f>
-        <v>6.5714285714285711E-2</v>
-      </c>
-      <c r="H2">
-        <f>I2*100</f>
-        <v>71</v>
-      </c>
-      <c r="I2">
-        <v>0.71</v>
-      </c>
-      <c r="J2" s="4">
-        <f>1-((I2-0.7)/0.3)</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K27" si="1">((J2*D2)/9)/(24*60)</f>
-        <v>9.8352962962962934E-2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L27" si="2">1-J2</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M27" si="3">(L2*D2/(4*24*60))</f>
-        <v>7.6308333333333297E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2.8472222222222222E-2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0.15</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>1146.96</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E27" si="4">B3/$B$29</f>
-        <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="F3">
-        <v>86</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G27" si="5">E3</f>
-        <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H27" si="6">I3*100</f>
-        <v>72</v>
-      </c>
-      <c r="I3">
-        <v>0.72</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J27" si="7">1-((I3-0.7)/0.3)</f>
-        <v>0.93333333333333324</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>8.2599999999999993E-2</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666763E-2</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="3"/>
-        <v>1.3275000000000019E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="B4">
-        <v>3.3</v>
-      </c>
-      <c r="C4">
-        <v>0.26</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1894.4639999999999</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="4"/>
-        <v>9.4285714285714278E-2</v>
-      </c>
-      <c r="F4">
-        <v>80</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="5"/>
-        <v>9.4285714285714278E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="I4">
-        <v>0.74</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="7"/>
-        <v>0.86666666666666647</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>0.12668740740740736</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>0.13333333333333353</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>4.3853333333333397E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="B5">
-        <v>2.5</v>
-      </c>
-      <c r="C5">
-        <v>0.2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1435.68</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="4"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="F5">
-        <v>99</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="5"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="I5">
-        <v>0.78</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="7"/>
-        <v>0.73333333333333306</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>8.123703703703701E-2</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>0.26666666666666694</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>6.6466666666666743E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>7.0138888888888903E-2</v>
-      </c>
-      <c r="B6">
-        <v>2.1</v>
-      </c>
-      <c r="C6">
-        <v>0.19</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1209.4559999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="F6">
-        <v>86</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="5"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="I6">
-        <v>0.89</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="7"/>
-        <v>0.36666666666666647</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>3.4218148148148129E-2</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>0.63333333333333353</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>0.13298416666666671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="B7">
-        <v>3.2</v>
-      </c>
-      <c r="C7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1843.0560000000003</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="4"/>
-        <v>9.1428571428571428E-2</v>
-      </c>
-      <c r="F7">
-        <v>92</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="5"/>
-        <v>9.1428571428571428E-2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="I7">
-        <v>0.88</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="7"/>
-        <v>0.3999999999999998</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>5.6884444444444425E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>0.6000000000000002</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>0.1919850000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="B8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C8">
-        <v>0.37</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>2361.1679999999997</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.11714285714285713</v>
-      </c>
-      <c r="F8">
-        <v>91</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="5"/>
-        <v>0.11714285714285713</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="I8">
-        <v>0.87</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="7"/>
-        <v>0.43333333333333313</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>7.8948518518518473E-2</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>0.56666666666666687</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>0.23229083333333339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0.111805555555556</v>
-      </c>
-      <c r="B9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C9">
-        <v>0.46</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2937.0239999999994</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14571428571428571</v>
-      </c>
-      <c r="F9">
-        <v>110</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="5"/>
-        <v>0.14571428571428571</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="I9">
-        <v>0.86</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="7"/>
-        <v>0.46666666666666656</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0.105757037037037</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>0.53333333333333344</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>0.27194666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="B10">
-        <v>9.1</v>
-      </c>
-      <c r="C10">
-        <v>0.66</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>5215.1039999999994</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.26</v>
-      </c>
-      <c r="F10">
-        <v>108</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="5"/>
-        <v>0.26</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="I10">
-        <v>0.63</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2333333333333332</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0.4962933333333332</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>-0.23333333333333317</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>-0.21125999999999981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>0.13958333333333334</v>
-      </c>
-      <c r="B11">
-        <v>11.1</v>
-      </c>
-      <c r="C11">
-        <v>0.74</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>6350.9759999999997</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="4"/>
-        <v>0.31714285714285712</v>
-      </c>
-      <c r="F11">
-        <v>109</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="5"/>
-        <v>0.31714285714285712</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="I11">
-        <v>0.63</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="7"/>
-        <v>1.2333333333333332</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0.60438814814814812</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>-0.23333333333333317</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>-0.25727333333333313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>0.19583333333333333</v>
-      </c>
-      <c r="B12">
-        <v>13.4</v>
-      </c>
-      <c r="C12">
-        <v>0.92</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>7671.1679999999997</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="4"/>
-        <v>0.38285714285714284</v>
-      </c>
-      <c r="F12">
-        <v>111</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="5"/>
-        <v>0.38285714285714284</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="I12">
-        <v>0.66</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="7"/>
-        <v>1.1333333333333331</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>0.67083259259259231</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>-0.13333333333333308</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>-0.17757333333333297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>0.16805555555555601</v>
-      </c>
-      <c r="B13">
-        <v>10.8</v>
-      </c>
-      <c r="C13">
-        <v>0.78</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>6188.8320000000003</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30857142857142861</v>
-      </c>
-      <c r="F13">
-        <v>109</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="5"/>
-        <v>0.30857142857142861</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="I13">
-        <v>0.69</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="7"/>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>0.49345111111111123</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>-3.3333333333333437E-2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
-        <v>-3.5815000000000111E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>0.18194444444444444</v>
-      </c>
-      <c r="B14">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C14">
-        <v>0.64</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5605.0559999999996</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F14">
-        <v>109</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="5"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="I14">
-        <v>0.69</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="7"/>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>0.44690518518518518</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>-3.3333333333333437E-2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>-3.2436666666666766E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>0.19513888888888889</v>
-      </c>
-      <c r="B15">
-        <v>12.1</v>
-      </c>
-      <c r="C15">
-        <v>0.86</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>6931.5839999999989</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.3457142857142857</v>
-      </c>
-      <c r="F15">
-        <v>106</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="5"/>
-        <v>0.3457142857142857</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="I15">
-        <v>0.68</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="7"/>
-        <v>1.0666666666666664</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>0.57050074074074053</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>-6.666666666666643E-2</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="3"/>
-        <v>-8.0226666666666363E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>0.20902777777777801</v>
-      </c>
-      <c r="B16">
-        <v>10.6</v>
-      </c>
-      <c r="C16">
-        <v>0.79</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>6078.0959999999995</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30285714285714282</v>
-      </c>
-      <c r="F16">
-        <v>112</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="5"/>
-        <v>0.30285714285714282</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="I16">
-        <v>0.71</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="7"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>0.45335592592592594</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="3"/>
-        <v>3.5174166666666652E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0.22361111111111101</v>
-      </c>
-      <c r="B17">
-        <v>11.2</v>
-      </c>
-      <c r="C17">
-        <v>0.87</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>6427.7280000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="4"/>
-        <v>0.32</v>
-      </c>
-      <c r="F17">
-        <v>113</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.32</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="I17">
-        <v>0.74</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="7"/>
-        <v>0.86666666666666647</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>0.42983777777777765</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>0.13333333333333353</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>0.14879000000000023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>0.23611111111111099</v>
-      </c>
-      <c r="B18">
-        <v>13.3</v>
-      </c>
-      <c r="C18">
-        <v>1.05</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>7635.6</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="4"/>
-        <v>0.38</v>
-      </c>
-      <c r="F18">
-        <v>125</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="5"/>
-        <v>0.38</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="I18">
-        <v>0.75</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333315</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>0.49097222222222214</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666685</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>0.22093750000000026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B19">
-        <v>13.7</v>
-      </c>
-      <c r="C19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>7868.1599999999989</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="4"/>
-        <v>0.3914285714285714</v>
-      </c>
-      <c r="F19">
-        <v>125</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="5"/>
-        <v>0.3914285714285714</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="I19">
-        <v>0.76</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="7"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>0.48568888888888867</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="2"/>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>0.27320000000000022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0.26388888888888901</v>
-      </c>
-      <c r="B20">
-        <v>12.7</v>
-      </c>
-      <c r="C20">
-        <v>1.03</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>7295.4719999999998</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="4"/>
-        <v>0.36285714285714282</v>
-      </c>
-      <c r="F20">
-        <v>127</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="5"/>
-        <v>0.36285714285714282</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="I20">
-        <v>0.77</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="7"/>
-        <v>0.76666666666666639</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>0.43157370370370346</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
-        <v>0.23333333333333361</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
-        <v>0.29553416666666699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0.27916666666666701</v>
-      </c>
-      <c r="B21">
-        <v>16.8</v>
-      </c>
-      <c r="C21">
-        <v>1.35</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>9648.7199999999993</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="4"/>
-        <v>0.48000000000000004</v>
-      </c>
-      <c r="F21">
-        <v>129</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="5"/>
-        <v>0.48000000000000004</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="I21">
-        <v>0.77</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="7"/>
-        <v>0.76666666666666639</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>0.57078333333333309</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
-        <v>0.23333333333333361</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="3"/>
-        <v>0.39086250000000045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0.29305555555555601</v>
-      </c>
-      <c r="B22">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="C22">
-        <v>1.45</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>9720.7199999999993</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="4"/>
-        <v>0.48285714285714282</v>
-      </c>
-      <c r="F22">
-        <v>135</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="5"/>
-        <v>0.48285714285714282</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="I22">
-        <v>0.81</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="7"/>
-        <v>0.63333333333333297</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>0.47503518518518495</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
-        <v>0.36666666666666703</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="3"/>
-        <v>0.61879583333333388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0.30625000000000002</v>
-      </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>1.84</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>12085.055999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
-      </c>
-      <c r="F23">
-        <v>138</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="I23">
-        <v>0.83</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="7"/>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>0.52841037037037031</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="3"/>
-        <v>0.90917666666666652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0.32152777777777802</v>
-      </c>
-      <c r="B24">
-        <v>21.1</v>
-      </c>
-      <c r="C24">
-        <v>1.93</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>12155.472000000002</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60285714285714287</v>
-      </c>
-      <c r="F24">
-        <v>147</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="5"/>
-        <v>0.60285714285714287</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="I24">
-        <v>0.87</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="7"/>
-        <v>0.43333333333333313</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0.40643296296296277</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
-        <v>0.56666666666666687</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="3"/>
-        <v>1.195850833333334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="B25">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>2.42</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>15546.528</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="4"/>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="F25">
-        <v>155</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="5"/>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="I25">
-        <v>0.89</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="7"/>
-        <v>0.36666666666666647</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>0.43984518518518495</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
-        <v>0.63333333333333353</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="3"/>
-        <v>1.7093983333333338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>0.34930555555555598</v>
-      </c>
-      <c r="B26">
-        <v>25.4</v>
-      </c>
-      <c r="C26">
-        <v>2.37</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>14640.047999999999</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="4"/>
-        <v>0.72571428571428565</v>
-      </c>
-      <c r="F26">
-        <v>155</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="5"/>
-        <v>0.72571428571428565</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="I26">
-        <v>0.87</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="7"/>
-        <v>0.43333333333333313</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>0.48950777777777749</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
-        <v>0.56666666666666687</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="3"/>
-        <v>1.4402825000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0.36180555555555599</v>
-      </c>
-      <c r="B27">
-        <v>29.6</v>
-      </c>
-      <c r="C27">
-        <v>2.71</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>17052.624</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="4"/>
-        <v>0.84571428571428575</v>
-      </c>
-      <c r="F27">
-        <v>163</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="5"/>
-        <v>0.84571428571428575</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="I27">
-        <v>0.92</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="7"/>
-        <v>0.26666666666666639</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>0.35087703703703665</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="2"/>
-        <v>0.73333333333333361</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="3"/>
-        <v>2.1710516666666675</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
+      <c r="B32">
         <v>35</v>
       </c>
     </row>
@@ -3554,6 +5955,876 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>VO2max!M4</f>
+        <v>HR
+[bpm]</v>
+      </c>
+      <c r="B1" t="str">
+        <f>VO2max!Y4</f>
+        <v>%VO2Max</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>VO2max!M5</f>
+        <v>83</v>
+      </c>
+      <c r="B2" s="26">
+        <f>VO2max!Y5</f>
+        <v>6.5714285714285711E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>VO2max!M6</f>
+        <v>86</v>
+      </c>
+      <c r="B3" s="26">
+        <f>VO2max!Y6</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>VO2max!M7</f>
+        <v>80</v>
+      </c>
+      <c r="B4" s="26">
+        <f>VO2max!Y7</f>
+        <v>9.4285714285714278E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>VO2max!M8</f>
+        <v>99</v>
+      </c>
+      <c r="B5" s="26">
+        <f>VO2max!Y8</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>VO2max!M9</f>
+        <v>86</v>
+      </c>
+      <c r="B6" s="26">
+        <f>VO2max!Y9</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>VO2max!M10</f>
+        <v>92</v>
+      </c>
+      <c r="B7" s="26">
+        <f>VO2max!Y10</f>
+        <v>9.1428571428571428E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>VO2max!M11</f>
+        <v>91</v>
+      </c>
+      <c r="B8" s="26">
+        <f>VO2max!Y11</f>
+        <v>0.11714285714285713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>VO2max!M12</f>
+        <v>110</v>
+      </c>
+      <c r="B9" s="26">
+        <f>VO2max!Y12</f>
+        <v>0.14571428571428571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>VO2max!M13</f>
+        <v>108</v>
+      </c>
+      <c r="B10" s="26">
+        <f>VO2max!Y13</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>VO2max!M14</f>
+        <v>109</v>
+      </c>
+      <c r="B11" s="26">
+        <f>VO2max!Y14</f>
+        <v>0.31714285714285712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>VO2max!M15</f>
+        <v>111</v>
+      </c>
+      <c r="B12" s="26">
+        <f>VO2max!Y15</f>
+        <v>0.38285714285714284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>VO2max!M16</f>
+        <v>109</v>
+      </c>
+      <c r="B13" s="26">
+        <f>VO2max!Y16</f>
+        <v>0.30857142857142861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>VO2max!M17</f>
+        <v>109</v>
+      </c>
+      <c r="B14" s="26">
+        <f>VO2max!Y17</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>VO2max!M18</f>
+        <v>106</v>
+      </c>
+      <c r="B15" s="26">
+        <f>VO2max!Y18</f>
+        <v>0.3457142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>VO2max!M19</f>
+        <v>112</v>
+      </c>
+      <c r="B16" s="26">
+        <f>VO2max!Y19</f>
+        <v>0.30285714285714282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>VO2max!M20</f>
+        <v>113</v>
+      </c>
+      <c r="B17" s="26">
+        <f>VO2max!Y20</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>VO2max!M21</f>
+        <v>125</v>
+      </c>
+      <c r="B18" s="26">
+        <f>VO2max!Y21</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>VO2max!M22</f>
+        <v>125</v>
+      </c>
+      <c r="B19" s="26">
+        <f>VO2max!Y22</f>
+        <v>0.3914285714285714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>VO2max!M23</f>
+        <v>127</v>
+      </c>
+      <c r="B20" s="26">
+        <f>VO2max!Y23</f>
+        <v>0.36285714285714282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>VO2max!M24</f>
+        <v>129</v>
+      </c>
+      <c r="B21" s="26">
+        <f>VO2max!Y24</f>
+        <v>0.48000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>VO2max!M25</f>
+        <v>135</v>
+      </c>
+      <c r="B22" s="26">
+        <f>VO2max!Y25</f>
+        <v>0.48285714285714282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>VO2max!M26</f>
+        <v>138</v>
+      </c>
+      <c r="B23" s="26">
+        <f>VO2max!Y26</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>VO2max!M27</f>
+        <v>147</v>
+      </c>
+      <c r="B24" s="26">
+        <f>VO2max!Y27</f>
+        <v>0.60285714285714287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>VO2max!M28</f>
+        <v>155</v>
+      </c>
+      <c r="B25" s="26">
+        <f>VO2max!Y28</f>
+        <v>0.77142857142857146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>VO2max!M29</f>
+        <v>155</v>
+      </c>
+      <c r="B26" s="26">
+        <f>VO2max!Y29</f>
+        <v>0.72571428571428565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>VO2max!M30</f>
+        <v>163</v>
+      </c>
+      <c r="B27" s="26">
+        <f>VO2max!Y30</f>
+        <v>0.84571428571428575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>VO2max!M4</f>
+        <v>HR
+[bpm]</v>
+      </c>
+      <c r="B1" t="str">
+        <f>VO2max!T4</f>
+        <v>FatOx 
+[g/min]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>VO2max!M5</f>
+        <v>83</v>
+      </c>
+      <c r="B2" s="19">
+        <f>VO2max!T5</f>
+        <v>0.17972266666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>VO2max!M6</f>
+        <v>86</v>
+      </c>
+      <c r="B3" s="19">
+        <f>VO2max!T6</f>
+        <v>0.14694399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>VO2max!M7</f>
+        <v>80</v>
+      </c>
+      <c r="B4" s="19">
+        <f>VO2max!T7</f>
+        <v>0.22893866666666662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>VO2max!M8</f>
+        <v>99</v>
+      </c>
+      <c r="B5" s="19">
+        <f>VO2max!T8</f>
+        <v>0.14478933333333327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>VO2max!M9</f>
+        <v>86</v>
+      </c>
+      <c r="B6" s="19">
+        <f>VO2max!T9</f>
+        <v>6.2597333333333297E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>VO2max!M10</f>
+        <v>92</v>
+      </c>
+      <c r="B7" s="19">
+        <f>VO2max!T10</f>
+        <v>0.10278399999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>VO2max!M11</f>
+        <v>91</v>
+      </c>
+      <c r="B8" s="19">
+        <f>VO2max!T11</f>
+        <v>0.1444906666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>VO2max!M12</f>
+        <v>110</v>
+      </c>
+      <c r="B9" s="19">
+        <f>VO2max!T12</f>
+        <v>0.1950293333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>VO2max!M13</f>
+        <v>108</v>
+      </c>
+      <c r="B10" s="19">
+        <f>VO2max!T13</f>
+        <v>0.88207999999999975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>VO2max!M14</f>
+        <v>109</v>
+      </c>
+      <c r="B11" s="19">
+        <f>VO2max!T14</f>
+        <v>1.0610613333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>VO2max!M15</f>
+        <v>111</v>
+      </c>
+      <c r="B12" s="19">
+        <f>VO2max!T15</f>
+        <v>1.1806613333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>VO2max!M16</f>
+        <v>109</v>
+      </c>
+      <c r="B13" s="19">
+        <f>VO2max!T16</f>
+        <v>0.87047999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>VO2max!M17</f>
+        <v>109</v>
+      </c>
+      <c r="B14" s="19">
+        <f>VO2max!T17</f>
+        <v>0.71605866666666673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>VO2max!M18</f>
+        <v>106</v>
+      </c>
+      <c r="B15" s="19">
+        <f>VO2max!T18</f>
+        <v>1.0134186666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>VO2max!M19</f>
+        <v>112</v>
+      </c>
+      <c r="B16" s="19">
+        <f>VO2max!T19</f>
+        <v>0.80998933333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>VO2max!M20</f>
+        <v>113</v>
+      </c>
+      <c r="B17" s="19">
+        <f>VO2max!T20</f>
+        <v>0.77084799999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>VO2max!M21</f>
+        <v>125</v>
+      </c>
+      <c r="B18" s="19">
+        <f>VO2max!T21</f>
+        <v>0.8819999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>VO2max!M22</f>
+        <v>125</v>
+      </c>
+      <c r="B19" s="19">
+        <f>VO2max!T22</f>
+        <v>0.87372799999999984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>VO2max!M23</f>
+        <v>127</v>
+      </c>
+      <c r="B20" s="19">
+        <f>VO2max!T23</f>
+        <v>0.78003733333333303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>VO2max!M24</f>
+        <v>129</v>
+      </c>
+      <c r="B21" s="19">
+        <f>VO2max!T24</f>
+        <v>1.0241439999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>VO2max!M25</f>
+        <v>135</v>
+      </c>
+      <c r="B22" s="19">
+        <f>VO2max!T25</f>
+        <v>0.86508266666666633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>VO2max!M26</f>
+        <v>138</v>
+      </c>
+      <c r="B23" s="19">
+        <f>VO2max!T26</f>
+        <v>0.96496533333333323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>VO2max!M27</f>
+        <v>147</v>
+      </c>
+      <c r="B24" s="19">
+        <f>VO2max!T27</f>
+        <v>0.74748266666666652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>VO2max!M28</f>
+        <v>155</v>
+      </c>
+      <c r="B25" s="19">
+        <f>VO2max!T28</f>
+        <v>0.80596266666666616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>VO2max!M29</f>
+        <v>155</v>
+      </c>
+      <c r="B26" s="19">
+        <f>VO2max!T29</f>
+        <v>0.90542399999999956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>VO2max!M30</f>
+        <v>163</v>
+      </c>
+      <c r="B27" s="19">
+        <f>VO2max!T30</f>
+        <v>0.64469333333333256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>VO2max!M4</f>
+        <v>HR
+[bpm]</v>
+      </c>
+      <c r="B1" t="str">
+        <f>VO2max!U4</f>
+        <v>ChoOx 
+[g/min]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>VO2max!M5</f>
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <f>VO2max!U5</f>
+        <v>1.3943999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>VO2max!M6</f>
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <f>VO2max!U6</f>
+        <v>2.3616000000000033E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>VO2max!M7</f>
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <f>VO2max!U7</f>
+        <v>7.924800000000011E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>VO2max!M8</f>
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <f>VO2max!U8</f>
+        <v>0.11846400000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>VO2max!M9</f>
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <f>VO2max!U9</f>
+        <v>0.24327600000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>VO2max!M10</f>
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <f>VO2max!U10</f>
+        <v>0.34689600000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>VO2max!M11</f>
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <f>VO2max!U11</f>
+        <v>0.42513600000000018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>VO2max!M12</f>
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <f>VO2max!U12</f>
+        <v>0.50150400000000017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>VO2max!M13</f>
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <f>VO2max!U13</f>
+        <v>-0.3754799999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>VO2max!M14</f>
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <f>VO2max!U14</f>
+        <v>-0.45166799999999968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>VO2max!M15</f>
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <f>VO2max!U15</f>
+        <v>-0.31252799999999942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>VO2max!M16</f>
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <f>VO2max!U16</f>
+        <v>-6.318000000000018E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>VO2max!M17</f>
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <f>VO2max!U17</f>
+        <v>-5.1972000000000164E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>VO2max!M18</f>
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <f>VO2max!U18</f>
+        <v>-0.1425119999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>VO2max!M19</f>
+        <v>112</v>
+      </c>
+      <c r="B16">
+        <f>VO2max!U19</f>
+        <v>6.2843999999999983E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>VO2max!M20</f>
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <f>VO2max!U20</f>
+        <v>0.26683200000000035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>VO2max!M21</f>
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <f>VO2max!U21</f>
+        <v>0.39690000000000047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>VO2max!M22</f>
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <f>VO2max!U22</f>
+        <v>0.49147200000000041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>VO2max!M23</f>
+        <v>127</v>
+      </c>
+      <c r="B20">
+        <f>VO2max!U23</f>
+        <v>0.53415600000000063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>VO2max!M24</f>
+        <v>129</v>
+      </c>
+      <c r="B21">
+        <f>VO2max!U24</f>
+        <v>0.70131600000000083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>VO2max!M25</f>
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <f>VO2max!U25</f>
+        <v>1.1268840000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>VO2max!M26</f>
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <f>VO2max!U26</f>
+        <v>1.6603080000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>VO2max!M27</f>
+        <v>147</v>
+      </c>
+      <c r="B24">
+        <f>VO2max!U27</f>
+        <v>2.1993240000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>VO2max!M28</f>
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <f>VO2max!U28</f>
+        <v>3.1322640000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>VO2max!M29</f>
+        <v>155</v>
+      </c>
+      <c r="B26">
+        <f>VO2max!U29</f>
+        <v>2.6640360000000012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>VO2max!M30</f>
+        <v>163</v>
+      </c>
+      <c r="B27">
+        <f>VO2max!U30</f>
+        <v>3.989040000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
@@ -3570,22 +6841,22 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <f>Sheet1!F15</f>
+        <f>VO2max!M18</f>
         <v>106</v>
       </c>
       <c r="B2" s="6">
-        <f>Sheet1!H15</f>
+        <f>VO2max!AA18</f>
         <v>68</v>
       </c>
       <c r="C2" s="6">
@@ -3595,11 +6866,11 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <f>Sheet1!F16</f>
+        <f>VO2max!M19</f>
         <v>112</v>
       </c>
       <c r="B3" s="6">
-        <f>Sheet1!H16</f>
+        <f>VO2max!AA19</f>
         <v>71</v>
       </c>
       <c r="C3" s="6">
@@ -3609,11 +6880,11 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <f>Sheet1!F17</f>
+        <f>VO2max!M20</f>
         <v>113</v>
       </c>
       <c r="B4" s="6">
-        <f>Sheet1!H17</f>
+        <f>VO2max!AA20</f>
         <v>74</v>
       </c>
       <c r="C4" s="6">
@@ -3623,11 +6894,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <f>Sheet1!F18</f>
+        <f>VO2max!M21</f>
         <v>125</v>
       </c>
       <c r="B5" s="6">
-        <f>Sheet1!H18</f>
+        <f>VO2max!AA21</f>
         <v>75</v>
       </c>
       <c r="C5" s="6">
@@ -3637,11 +6908,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <f>Sheet1!F19</f>
+        <f>VO2max!M22</f>
         <v>125</v>
       </c>
       <c r="B6" s="6">
-        <f>Sheet1!H19</f>
+        <f>VO2max!AA22</f>
         <v>76</v>
       </c>
       <c r="C6" s="6">
@@ -3651,11 +6922,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <f>Sheet1!F20</f>
+        <f>VO2max!M23</f>
         <v>127</v>
       </c>
       <c r="B7" s="6">
-        <f>Sheet1!H20</f>
+        <f>VO2max!AA23</f>
         <v>77</v>
       </c>
       <c r="C7" s="6">
@@ -3665,11 +6936,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <f>Sheet1!F21</f>
+        <f>VO2max!M24</f>
         <v>129</v>
       </c>
       <c r="B8" s="6">
-        <f>Sheet1!H21</f>
+        <f>VO2max!AA24</f>
         <v>77</v>
       </c>
       <c r="C8" s="6">
@@ -3679,11 +6950,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <f>Sheet1!F22</f>
+        <f>VO2max!M25</f>
         <v>135</v>
       </c>
       <c r="B9" s="6">
-        <f>Sheet1!H22</f>
+        <f>VO2max!AA25</f>
         <v>81</v>
       </c>
       <c r="C9" s="6">
@@ -3693,11 +6964,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <f>Sheet1!F23</f>
+        <f>VO2max!M26</f>
         <v>138</v>
       </c>
       <c r="B10" s="6">
-        <f>Sheet1!H23</f>
+        <f>VO2max!AA26</f>
         <v>83</v>
       </c>
       <c r="C10" s="6">
@@ -3707,11 +6978,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <f>Sheet1!F24</f>
+        <f>VO2max!M27</f>
         <v>147</v>
       </c>
       <c r="B11" s="6">
-        <f>Sheet1!H24</f>
+        <f>VO2max!AA27</f>
         <v>87</v>
       </c>
       <c r="C11" s="6">
@@ -3721,11 +6992,11 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <f>Sheet1!F25</f>
+        <f>VO2max!M28</f>
         <v>155</v>
       </c>
       <c r="B12" s="6">
-        <f>Sheet1!H25</f>
+        <f>VO2max!AA28</f>
         <v>89</v>
       </c>
       <c r="C12" s="6">
@@ -3735,11 +7006,11 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <f>Sheet1!F26</f>
+        <f>VO2max!M29</f>
         <v>155</v>
       </c>
       <c r="B13" s="6">
-        <f>Sheet1!H26</f>
+        <f>VO2max!AA29</f>
         <v>87</v>
       </c>
       <c r="C13" s="6">
@@ -3749,11 +7020,11 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <f>Sheet1!F27</f>
+        <f>VO2max!M30</f>
         <v>163</v>
       </c>
       <c r="B14" s="6">
-        <f>Sheet1!H27</f>
+        <f>VO2max!AA30</f>
         <v>92</v>
       </c>
       <c r="C14" s="6">
@@ -3832,11 +7103,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:B43"/>
     </sheetView>
   </sheetViews>
@@ -3848,284 +7119,285 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
-        <f>Sheet1!F1</f>
-        <v>HR</v>
+        <f>VO2max!M4</f>
+        <v>HR
+[bpm]</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>Sheet1!F2</f>
+        <f>VO2max!M5</f>
         <v>83</v>
       </c>
       <c r="B2">
-        <f>Sheet1!D2/(24*60)</f>
-        <v>0.91569999999999985</v>
+        <f>VO2max!Q5/(24*60)</f>
+        <v>1.1619999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>Sheet1!F3</f>
+        <f>VO2max!M6</f>
         <v>86</v>
       </c>
       <c r="B3">
-        <f>Sheet1!D3/(24*60)</f>
-        <v>0.79649999999999999</v>
+        <f>VO2max!Q6/(24*60)</f>
+        <v>9.8400000000000007E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>Sheet1!F4</f>
+        <f>VO2max!M7</f>
         <v>80</v>
       </c>
       <c r="B4">
-        <f>Sheet1!D4/(24*60)</f>
-        <v>1.3155999999999999</v>
+        <f>VO2max!Q7/(24*60)</f>
+        <v>1.6509999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>Sheet1!F5</f>
+        <f>VO2max!M8</f>
         <v>99</v>
       </c>
       <c r="B5">
-        <f>Sheet1!D5/(24*60)</f>
-        <v>0.997</v>
+        <f>VO2max!Q8/(24*60)</f>
+        <v>1.2339999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>Sheet1!F6</f>
+        <f>VO2max!M9</f>
         <v>86</v>
       </c>
       <c r="B6">
-        <f>Sheet1!D6/(24*60)</f>
-        <v>0.83989999999999998</v>
+        <f>VO2max!Q9/(24*60)</f>
+        <v>1.0669999999999998E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>Sheet1!F7</f>
+        <f>VO2max!M10</f>
         <v>92</v>
       </c>
       <c r="B7">
-        <f>Sheet1!D7/(24*60)</f>
-        <v>1.2799000000000003</v>
+        <f>VO2max!Q10/(24*60)</f>
+        <v>1.6059999999999998E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>Sheet1!F8</f>
+        <f>VO2max!M11</f>
         <v>91</v>
       </c>
       <c r="B8">
-        <f>Sheet1!D8/(24*60)</f>
-        <v>1.6396999999999997</v>
+        <f>VO2max!Q11/(24*60)</f>
+        <v>2.0839999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>Sheet1!F9</f>
+        <f>VO2max!M12</f>
         <v>110</v>
       </c>
       <c r="B9">
-        <f>Sheet1!D9/(24*60)</f>
-        <v>2.0395999999999996</v>
+        <f>VO2max!Q12/(24*60)</f>
+        <v>2.6120000000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>Sheet1!F10</f>
+        <f>VO2max!M13</f>
         <v>108</v>
       </c>
       <c r="B10">
-        <f>Sheet1!D10/(24*60)</f>
-        <v>3.6215999999999995</v>
+        <f>VO2max!Q13/(24*60)</f>
+        <v>4.4699999999999991E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>Sheet1!F11</f>
+        <f>VO2max!M14</f>
         <v>109</v>
       </c>
       <c r="B11">
-        <f>Sheet1!D11/(24*60)</f>
-        <v>4.4104000000000001</v>
+        <f>VO2max!Q14/(24*60)</f>
+        <v>5.3769999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>Sheet1!F12</f>
+        <f>VO2max!M15</f>
         <v>111</v>
       </c>
       <c r="B12">
-        <f>Sheet1!D12/(24*60)</f>
-        <v>5.3271999999999995</v>
+        <f>VO2max!Q15/(24*60)</f>
+        <v>6.5110000000000003E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f>Sheet1!F13</f>
+        <f>VO2max!M16</f>
         <v>109</v>
       </c>
       <c r="B13">
-        <f>Sheet1!D13/(24*60)</f>
-        <v>4.2978000000000005</v>
+        <f>VO2max!Q16/(24*60)</f>
+        <v>5.2649999999999988E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>Sheet1!F14</f>
+        <f>VO2max!M17</f>
         <v>109</v>
       </c>
       <c r="B14">
-        <f>Sheet1!D14/(24*60)</f>
-        <v>3.8923999999999999</v>
+        <f>VO2max!Q17/(24*60)</f>
+        <v>4.3310000000000006E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f>Sheet1!F15</f>
+        <f>VO2max!M18</f>
         <v>106</v>
       </c>
       <c r="B15">
-        <f>Sheet1!D15/(24*60)</f>
-        <v>4.8135999999999992</v>
+        <f>VO2max!Q18/(24*60)</f>
+        <v>5.9379999999999997E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>Sheet1!F16</f>
+        <f>VO2max!M19</f>
         <v>112</v>
       </c>
       <c r="B16">
-        <f>Sheet1!D16/(24*60)</f>
-        <v>4.2208999999999994</v>
+        <f>VO2max!Q19/(24*60)</f>
+        <v>5.2369999999999995E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>Sheet1!F17</f>
+        <f>VO2max!M20</f>
         <v>113</v>
       </c>
       <c r="B17">
-        <f>Sheet1!D17/(24*60)</f>
-        <v>4.4637000000000002</v>
+        <f>VO2max!Q20/(24*60)</f>
+        <v>5.5589999999999988E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>Sheet1!F18</f>
+        <f>VO2max!M21</f>
         <v>125</v>
       </c>
       <c r="B18">
-        <f>Sheet1!D18/(24*60)</f>
-        <v>5.3025000000000002</v>
+        <f>VO2max!Q21/(24*60)</f>
+        <v>6.6150000000000002E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>Sheet1!F19</f>
+        <f>VO2max!M22</f>
         <v>125</v>
       </c>
       <c r="B19">
-        <f>Sheet1!D19/(24*60)</f>
-        <v>5.4639999999999995</v>
+        <f>VO2max!Q22/(24*60)</f>
+        <v>6.8259999999999996E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>Sheet1!F20</f>
+        <f>VO2max!M23</f>
         <v>127</v>
       </c>
       <c r="B20">
-        <f>Sheet1!D20/(24*60)</f>
-        <v>5.0663</v>
+        <f>VO2max!Q23/(24*60)</f>
+        <v>6.3590000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>Sheet1!F21</f>
+        <f>VO2max!M24</f>
         <v>129</v>
       </c>
       <c r="B21">
-        <f>Sheet1!D21/(24*60)</f>
-        <v>6.7004999999999999</v>
+        <f>VO2max!Q24/(24*60)</f>
+        <v>8.3490000000000005E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>Sheet1!F22</f>
+        <f>VO2max!M25</f>
         <v>135</v>
       </c>
       <c r="B22">
-        <f>Sheet1!D22/(24*60)</f>
-        <v>6.7504999999999997</v>
+        <f>VO2max!Q25/(24*60)</f>
+        <v>8.5370000000000012E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>Sheet1!F23</f>
+        <f>VO2max!M26</f>
         <v>138</v>
       </c>
       <c r="B23">
-        <f>Sheet1!D23/(24*60)</f>
-        <v>8.3923999999999985</v>
+        <f>VO2max!Q26/(24*60)</f>
+        <v>1.0643E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>Sheet1!F24</f>
+        <f>VO2max!M27</f>
         <v>147</v>
       </c>
       <c r="B24">
-        <f>Sheet1!D24/(24*60)</f>
-        <v>8.4413000000000018</v>
+        <f>VO2max!Q27/(24*60)</f>
+        <v>1.0781000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>Sheet1!F25</f>
+        <f>VO2max!M28</f>
         <v>155</v>
       </c>
       <c r="B25">
-        <f>Sheet1!D25/(24*60)</f>
-        <v>10.796200000000001</v>
+        <f>VO2max!Q28/(24*60)</f>
+        <v>1.3737999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>Sheet1!F26</f>
+        <f>VO2max!M29</f>
         <v>155</v>
       </c>
       <c r="B26">
-        <f>Sheet1!D26/(24*60)</f>
-        <v>10.166699999999999</v>
+        <f>VO2max!Q29/(24*60)</f>
+        <v>1.3059000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>Sheet1!F27</f>
+        <f>VO2max!M30</f>
         <v>163</v>
       </c>
       <c r="B27">
-        <f>Sheet1!D27/(24*60)</f>
-        <v>11.8421</v>
+        <f>VO2max!Q30/(24*60)</f>
+        <v>1.5109999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4252,11 +7524,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4274,35 +7546,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4684,16 +7956,16 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4792,4 +8064,406 @@
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>VO2max!M4</f>
+        <v>HR
+[bpm]</v>
+      </c>
+      <c r="B1" t="str">
+        <f>VO2max!V4</f>
+        <v>FatOx 
+[kCal/min]</v>
+      </c>
+      <c r="C1" t="str">
+        <f>VO2max!W4</f>
+        <v>CHO-Ox 
+[kCal/min]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>VO2max!M5</f>
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <f>VO2max!V5</f>
+        <v>1.6175039999999998</v>
+      </c>
+      <c r="C2">
+        <f>VO2max!W5</f>
+        <v>5.5775999999999985E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>VO2max!M6</f>
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <f>VO2max!V6</f>
+        <v>1.3224959999999999</v>
+      </c>
+      <c r="C3">
+        <f>VO2max!W6</f>
+        <v>9.4464000000000131E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>VO2max!M7</f>
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <f>VO2max!V7</f>
+        <v>2.0604479999999996</v>
+      </c>
+      <c r="C4">
+        <f>VO2max!W7</f>
+        <v>0.31699200000000044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>VO2max!M8</f>
+        <v>99</v>
+      </c>
+      <c r="B5">
+        <f>VO2max!V8</f>
+        <v>1.3031039999999994</v>
+      </c>
+      <c r="C5">
+        <f>VO2max!W8</f>
+        <v>0.47385600000000044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>VO2max!M9</f>
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <f>VO2max!V9</f>
+        <v>0.56337599999999965</v>
+      </c>
+      <c r="C6">
+        <f>VO2max!W9</f>
+        <v>0.97310400000000019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>VO2max!M10</f>
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <f>VO2max!V10</f>
+        <v>0.92505599999999943</v>
+      </c>
+      <c r="C7">
+        <f>VO2max!W10</f>
+        <v>1.3875840000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>VO2max!M11</f>
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <f>VO2max!V11</f>
+        <v>1.3004159999999994</v>
+      </c>
+      <c r="C8">
+        <f>VO2max!W11</f>
+        <v>1.7005440000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>VO2max!M12</f>
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <f>VO2max!V12</f>
+        <v>1.7552639999999997</v>
+      </c>
+      <c r="C9">
+        <f>VO2max!W12</f>
+        <v>2.0060160000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>VO2max!M13</f>
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <f>VO2max!V13</f>
+        <v>7.9387199999999982</v>
+      </c>
+      <c r="C10">
+        <f>VO2max!W13</f>
+        <v>-1.5019199999999988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>VO2max!M14</f>
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <f>VO2max!V14</f>
+        <v>9.5495519999999985</v>
+      </c>
+      <c r="C11">
+        <f>VO2max!W14</f>
+        <v>-1.8066719999999987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>VO2max!M15</f>
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <f>VO2max!V15</f>
+        <v>10.625951999999998</v>
+      </c>
+      <c r="C12">
+        <f>VO2max!W15</f>
+        <v>-1.2501119999999977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>VO2max!M16</f>
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <f>VO2max!V16</f>
+        <v>7.8343199999999991</v>
+      </c>
+      <c r="C13">
+        <f>VO2max!W16</f>
+        <v>-0.25272000000000072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>VO2max!M17</f>
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <f>VO2max!V17</f>
+        <v>6.4445280000000009</v>
+      </c>
+      <c r="C14">
+        <f>VO2max!W17</f>
+        <v>-0.20788800000000066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>VO2max!M18</f>
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <f>VO2max!V18</f>
+        <v>9.1207679999999982</v>
+      </c>
+      <c r="C15">
+        <f>VO2max!W18</f>
+        <v>-0.570047999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>VO2max!M19</f>
+        <v>112</v>
+      </c>
+      <c r="B16">
+        <f>VO2max!V19</f>
+        <v>7.2899039999999999</v>
+      </c>
+      <c r="C16">
+        <f>VO2max!W19</f>
+        <v>0.25137599999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>VO2max!M20</f>
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <f>VO2max!V20</f>
+        <v>6.9376319999999971</v>
+      </c>
+      <c r="C17">
+        <f>VO2max!W20</f>
+        <v>1.0673280000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>VO2max!M21</f>
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <f>VO2max!V21</f>
+        <v>7.9379999999999988</v>
+      </c>
+      <c r="C18">
+        <f>VO2max!W21</f>
+        <v>1.5876000000000019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>VO2max!M22</f>
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <f>VO2max!V22</f>
+        <v>7.8635519999999985</v>
+      </c>
+      <c r="C19">
+        <f>VO2max!W22</f>
+        <v>1.9658880000000016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>VO2max!M23</f>
+        <v>127</v>
+      </c>
+      <c r="B20">
+        <f>VO2max!V23</f>
+        <v>7.0203359999999968</v>
+      </c>
+      <c r="C20">
+        <f>VO2max!W23</f>
+        <v>2.1366240000000025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>VO2max!M24</f>
+        <v>129</v>
+      </c>
+      <c r="B21">
+        <f>VO2max!V24</f>
+        <v>9.2172959999999975</v>
+      </c>
+      <c r="C21">
+        <f>VO2max!W24</f>
+        <v>2.8052640000000033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>VO2max!M25</f>
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <f>VO2max!V25</f>
+        <v>7.7857439999999967</v>
+      </c>
+      <c r="C22">
+        <f>VO2max!W25</f>
+        <v>4.5075360000000044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>VO2max!M26</f>
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <f>VO2max!V26</f>
+        <v>8.6846879999999995</v>
+      </c>
+      <c r="C23">
+        <f>VO2max!W26</f>
+        <v>6.6412320000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>VO2max!M27</f>
+        <v>147</v>
+      </c>
+      <c r="B24">
+        <f>VO2max!V27</f>
+        <v>6.7273439999999987</v>
+      </c>
+      <c r="C24">
+        <f>VO2max!W27</f>
+        <v>8.7972960000000047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>VO2max!M28</f>
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <f>VO2max!V28</f>
+        <v>7.2536639999999952</v>
+      </c>
+      <c r="C25">
+        <f>VO2max!W28</f>
+        <v>12.529056000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>VO2max!M29</f>
+        <v>155</v>
+      </c>
+      <c r="B26">
+        <f>VO2max!V29</f>
+        <v>8.1488159999999965</v>
+      </c>
+      <c r="C26">
+        <f>VO2max!W29</f>
+        <v>10.656144000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>VO2max!M30</f>
+        <v>163</v>
+      </c>
+      <c r="B27">
+        <f>VO2max!V30</f>
+        <v>5.8022399999999932</v>
+      </c>
+      <c r="C27">
+        <f>VO2max!W30</f>
+        <v>15.956160000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>